--- a/invoice/utils/output.xlsx
+++ b/invoice/utils/output.xlsx
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a368cd51-971e-4069-9587-81c34e8425e2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9505cc54-8aaf-4186-8e48-9dac1bd4fd6a}">
   <dimension ref="A1:ZT28"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -20580,7 +20580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432eddf3-9349-4542-b6db-21b146990c01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b07861c1-9f66-4677-b5b0-5af35a7e55c5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/invoice/utils/output.xlsx
+++ b/invoice/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>ООО "УМСКУЛ"</t>
   </si>
@@ -940,8 +940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9505cc54-8aaf-4186-8e48-9dac1bd4fd6a}">
-  <dimension ref="A1:ZT28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d7a8f28b-61cb-45b0-8d84-3a83d7ad9b92}">
+  <dimension ref="A1:ZT29"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -13564,119 +13564,129 @@
       <c r="ZS18" s="45"/>
     </row>
     <row r="19" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A19" s="62" t="s">
-        <v>20</v>
+      <c r="A19" s="55">
+        <v>1</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="62"/>
-      <c r="BR19" s="62"/>
-      <c r="BS19" s="62"/>
-      <c r="BT19" s="62"/>
-      <c r="BU19" s="62"/>
-      <c r="BV19" s="62"/>
-      <c r="BW19" s="62"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="62"/>
-      <c r="BZ19" s="62"/>
-      <c r="CA19" s="62"/>
-      <c r="CB19" s="62"/>
-      <c r="CC19" s="62"/>
-      <c r="CD19" s="62"/>
-      <c r="CE19" s="62"/>
-      <c r="CF19" s="62"/>
-      <c r="CG19" s="62"/>
-      <c r="CH19" s="62"/>
-      <c r="CI19" s="62"/>
-      <c r="CJ19" s="62"/>
-      <c r="CK19" s="62"/>
-      <c r="CL19" s="62"/>
-      <c r="CM19" s="62"/>
-      <c r="CN19" s="64" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="57"/>
+      <c r="BB19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="CO19" s="64"/>
-      <c r="CP19" s="64"/>
-      <c r="CQ19" s="64"/>
-      <c r="CR19" s="64"/>
-      <c r="CS19" s="64"/>
-      <c r="CT19" s="64"/>
-      <c r="CU19" s="64"/>
-      <c r="CV19" s="64"/>
-      <c r="CW19" s="64"/>
-      <c r="CX19" s="64"/>
-      <c r="CY19" s="64"/>
-      <c r="CZ19" s="64"/>
-      <c r="DA19" s="64"/>
-      <c r="DB19" s="64"/>
-      <c r="DC19" s="64"/>
-      <c r="DD19" s="64"/>
-      <c r="DE19" s="64"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="59"/>
+      <c r="BH19" s="59"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="59"/>
+      <c r="BK19" s="59"/>
+      <c r="BL19" s="59"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="59"/>
+      <c r="BP19" s="60">
+        <v>36526</v>
+      </c>
+      <c r="BQ19" s="54"/>
+      <c r="BR19" s="54"/>
+      <c r="BS19" s="54"/>
+      <c r="BT19" s="54"/>
+      <c r="BU19" s="54"/>
+      <c r="BV19" s="54"/>
+      <c r="BW19" s="54"/>
+      <c r="BX19" s="54"/>
+      <c r="BY19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="BZ19" s="54"/>
+      <c r="CA19" s="54"/>
+      <c r="CB19" s="54"/>
+      <c r="CC19" s="54"/>
+      <c r="CD19" s="54"/>
+      <c r="CE19" s="54"/>
+      <c r="CF19" s="54"/>
+      <c r="CG19" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH19" s="54"/>
+      <c r="CI19" s="54"/>
+      <c r="CJ19" s="54"/>
+      <c r="CK19" s="54"/>
+      <c r="CL19" s="54"/>
+      <c r="CM19" s="54"/>
+      <c r="CN19" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO19" s="59"/>
+      <c r="CP19" s="59"/>
+      <c r="CQ19" s="59"/>
+      <c r="CR19" s="59"/>
+      <c r="CS19" s="59"/>
+      <c r="CT19" s="59"/>
+      <c r="CU19" s="59"/>
+      <c r="CV19" s="59"/>
+      <c r="CW19" s="59"/>
+      <c r="CX19" s="59"/>
+      <c r="CY19" s="59"/>
+      <c r="CZ19" s="59"/>
+      <c r="DA19" s="59"/>
+      <c r="DB19" s="59"/>
+      <c r="DC19" s="59"/>
+      <c r="DD19" s="59"/>
+      <c r="DE19" s="59"/>
       <c r="DG19" s="45"/>
       <c r="DH19" s="45"/>
       <c r="DI19" s="45"/>
@@ -14248,13 +14258,14 @@
       <c r="ZC19" s="45"/>
       <c r="ZD19" s="45"/>
       <c r="ZE19" s="45"/>
-      <c r="ZF19" s="45"/>
-      <c r="ZG19" s="45"/>
-      <c r="ZH19" s="45"/>
+      <c r="ZF19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="ZG19" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="ZI19" s="45"/>
-      <c r="ZJ19" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="ZK19" s="45"/>
       <c r="ZM19" s="45"/>
       <c r="ZN19" s="45"/>
       <c r="ZO19" s="45"/>
@@ -14264,117 +14275,119 @@
       <c r="ZS19" s="45"/>
     </row>
     <row r="20" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A20" s="66" t="s">
-        <v>21</v>
+      <c r="A20" s="62" t="s">
+        <v>20</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="66"/>
-      <c r="BJ20" s="66"/>
-      <c r="BK20" s="66"/>
-      <c r="BL20" s="66"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="66"/>
-      <c r="BO20" s="66"/>
-      <c r="BP20" s="66"/>
-      <c r="BQ20" s="66"/>
-      <c r="BR20" s="66"/>
-      <c r="BS20" s="66"/>
-      <c r="BT20" s="66"/>
-      <c r="BU20" s="66"/>
-      <c r="BV20" s="66"/>
-      <c r="BW20" s="66"/>
-      <c r="BX20" s="66"/>
-      <c r="BY20" s="66"/>
-      <c r="BZ20" s="66"/>
-      <c r="CA20" s="66"/>
-      <c r="CB20" s="66"/>
-      <c r="CC20" s="66"/>
-      <c r="CD20" s="66"/>
-      <c r="CE20" s="66"/>
-      <c r="CF20" s="66"/>
-      <c r="CG20" s="66"/>
-      <c r="CH20" s="66"/>
-      <c r="CI20" s="66"/>
-      <c r="CJ20" s="66"/>
-      <c r="CK20" s="66"/>
-      <c r="CL20" s="66"/>
-      <c r="CM20" s="66"/>
-      <c r="CN20" s="66"/>
-      <c r="CO20" s="66"/>
-      <c r="CP20" s="66"/>
-      <c r="CQ20" s="66"/>
-      <c r="CR20" s="66"/>
-      <c r="CS20" s="66"/>
-      <c r="CT20" s="66"/>
-      <c r="CU20" s="66"/>
-      <c r="CV20" s="66"/>
-      <c r="CW20" s="66"/>
-      <c r="CX20" s="66"/>
-      <c r="CY20" s="66"/>
-      <c r="CZ20" s="66"/>
-      <c r="DA20" s="66"/>
-      <c r="DB20" s="66"/>
-      <c r="DC20" s="66"/>
-      <c r="DD20" s="66"/>
-      <c r="DE20" s="66"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="62"/>
+      <c r="BP20" s="62"/>
+      <c r="BQ20" s="62"/>
+      <c r="BR20" s="62"/>
+      <c r="BS20" s="62"/>
+      <c r="BT20" s="62"/>
+      <c r="BU20" s="62"/>
+      <c r="BV20" s="62"/>
+      <c r="BW20" s="62"/>
+      <c r="BX20" s="62"/>
+      <c r="BY20" s="62"/>
+      <c r="BZ20" s="62"/>
+      <c r="CA20" s="62"/>
+      <c r="CB20" s="62"/>
+      <c r="CC20" s="62"/>
+      <c r="CD20" s="62"/>
+      <c r="CE20" s="62"/>
+      <c r="CF20" s="62"/>
+      <c r="CG20" s="62"/>
+      <c r="CH20" s="62"/>
+      <c r="CI20" s="62"/>
+      <c r="CJ20" s="62"/>
+      <c r="CK20" s="62"/>
+      <c r="CL20" s="62"/>
+      <c r="CM20" s="62"/>
+      <c r="CN20" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO20" s="64"/>
+      <c r="CP20" s="64"/>
+      <c r="CQ20" s="64"/>
+      <c r="CR20" s="64"/>
+      <c r="CS20" s="64"/>
+      <c r="CT20" s="64"/>
+      <c r="CU20" s="64"/>
+      <c r="CV20" s="64"/>
+      <c r="CW20" s="64"/>
+      <c r="CX20" s="64"/>
+      <c r="CY20" s="64"/>
+      <c r="CZ20" s="64"/>
+      <c r="DA20" s="64"/>
+      <c r="DB20" s="64"/>
+      <c r="DC20" s="64"/>
+      <c r="DD20" s="64"/>
+      <c r="DE20" s="64"/>
       <c r="DG20" s="45"/>
       <c r="DH20" s="45"/>
       <c r="DI20" s="45"/>
@@ -14950,9 +14963,8 @@
       <c r="ZG20" s="45"/>
       <c r="ZH20" s="45"/>
       <c r="ZI20" s="45"/>
-      <c r="ZJ20" s="45"/>
-      <c r="ZK20" s="6" t="s">
-        <v>21</v>
+      <c r="ZJ20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="ZM20" s="45"/>
       <c r="ZN20" s="45"/>
@@ -14963,117 +14975,117 @@
       <c r="ZS20" s="45"/>
     </row>
     <row r="21" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A21" s="68" t="s">
-        <v>22</v>
+      <c r="A21" s="66" t="s">
+        <v>21</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="68"/>
-      <c r="BQ21" s="68"/>
-      <c r="BR21" s="68"/>
-      <c r="BS21" s="68"/>
-      <c r="BT21" s="68"/>
-      <c r="BU21" s="68"/>
-      <c r="BV21" s="68"/>
-      <c r="BW21" s="68"/>
-      <c r="BX21" s="68"/>
-      <c r="BY21" s="68"/>
-      <c r="BZ21" s="68"/>
-      <c r="CA21" s="68"/>
-      <c r="CB21" s="68"/>
-      <c r="CC21" s="68"/>
-      <c r="CD21" s="68"/>
-      <c r="CE21" s="68"/>
-      <c r="CF21" s="68"/>
-      <c r="CG21" s="68"/>
-      <c r="CH21" s="68"/>
-      <c r="CI21" s="68"/>
-      <c r="CJ21" s="68"/>
-      <c r="CK21" s="68"/>
-      <c r="CL21" s="68"/>
-      <c r="CM21" s="68"/>
-      <c r="CN21" s="68"/>
-      <c r="CO21" s="68"/>
-      <c r="CP21" s="68"/>
-      <c r="CQ21" s="68"/>
-      <c r="CR21" s="68"/>
-      <c r="CS21" s="68"/>
-      <c r="CT21" s="68"/>
-      <c r="CU21" s="68"/>
-      <c r="CV21" s="68"/>
-      <c r="CW21" s="68"/>
-      <c r="CX21" s="68"/>
-      <c r="CY21" s="68"/>
-      <c r="CZ21" s="68"/>
-      <c r="DA21" s="68"/>
-      <c r="DB21" s="68"/>
-      <c r="DC21" s="68"/>
-      <c r="DD21" s="68"/>
-      <c r="DE21" s="68"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
+      <c r="BP21" s="66"/>
+      <c r="BQ21" s="66"/>
+      <c r="BR21" s="66"/>
+      <c r="BS21" s="66"/>
+      <c r="BT21" s="66"/>
+      <c r="BU21" s="66"/>
+      <c r="BV21" s="66"/>
+      <c r="BW21" s="66"/>
+      <c r="BX21" s="66"/>
+      <c r="BY21" s="66"/>
+      <c r="BZ21" s="66"/>
+      <c r="CA21" s="66"/>
+      <c r="CB21" s="66"/>
+      <c r="CC21" s="66"/>
+      <c r="CD21" s="66"/>
+      <c r="CE21" s="66"/>
+      <c r="CF21" s="66"/>
+      <c r="CG21" s="66"/>
+      <c r="CH21" s="66"/>
+      <c r="CI21" s="66"/>
+      <c r="CJ21" s="66"/>
+      <c r="CK21" s="66"/>
+      <c r="CL21" s="66"/>
+      <c r="CM21" s="66"/>
+      <c r="CN21" s="66"/>
+      <c r="CO21" s="66"/>
+      <c r="CP21" s="66"/>
+      <c r="CQ21" s="66"/>
+      <c r="CR21" s="66"/>
+      <c r="CS21" s="66"/>
+      <c r="CT21" s="66"/>
+      <c r="CU21" s="66"/>
+      <c r="CV21" s="66"/>
+      <c r="CW21" s="66"/>
+      <c r="CX21" s="66"/>
+      <c r="CY21" s="66"/>
+      <c r="CZ21" s="66"/>
+      <c r="DA21" s="66"/>
+      <c r="DB21" s="66"/>
+      <c r="DC21" s="66"/>
+      <c r="DD21" s="66"/>
+      <c r="DE21" s="66"/>
       <c r="DG21" s="45"/>
       <c r="DH21" s="45"/>
       <c r="DI21" s="45"/>
@@ -15650,8 +15662,9 @@
       <c r="ZH21" s="45"/>
       <c r="ZI21" s="45"/>
       <c r="ZJ21" s="45"/>
-      <c r="ZK21" s="45"/>
-      <c r="ZL21" s="45"/>
+      <c r="ZK21" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="ZM21" s="45"/>
       <c r="ZN21" s="45"/>
       <c r="ZO21" s="45"/>
@@ -15659,118 +15672,119 @@
       <c r="ZQ21" s="45"/>
       <c r="ZR21" s="45"/>
       <c r="ZS21" s="45"/>
-      <c r="ZT21" s="45"/>
     </row>
-    <row r="22" spans="1:696" ht="4.5" customHeight="1">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="45"/>
-      <c r="BF22" s="45"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="45"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="45"/>
-      <c r="BM22" s="45"/>
-      <c r="BN22" s="45"/>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="45"/>
-      <c r="BQ22" s="45"/>
-      <c r="BR22" s="45"/>
-      <c r="BS22" s="45"/>
-      <c r="BT22" s="45"/>
-      <c r="BU22" s="45"/>
-      <c r="BV22" s="45"/>
-      <c r="BW22" s="45"/>
-      <c r="BX22" s="45"/>
-      <c r="BY22" s="45"/>
-      <c r="BZ22" s="45"/>
-      <c r="CA22" s="45"/>
-      <c r="CB22" s="45"/>
-      <c r="CC22" s="45"/>
-      <c r="CD22" s="45"/>
-      <c r="CE22" s="45"/>
-      <c r="CF22" s="45"/>
-      <c r="CG22" s="45"/>
-      <c r="CH22" s="45"/>
-      <c r="CI22" s="45"/>
-      <c r="CJ22" s="45"/>
-      <c r="CK22" s="45"/>
-      <c r="CL22" s="45"/>
-      <c r="CM22" s="45"/>
-      <c r="CN22" s="45"/>
-      <c r="CO22" s="45"/>
-      <c r="CP22" s="45"/>
-      <c r="CQ22" s="45"/>
-      <c r="CR22" s="45"/>
-      <c r="CS22" s="45"/>
-      <c r="CT22" s="45"/>
-      <c r="CU22" s="45"/>
-      <c r="CV22" s="45"/>
-      <c r="CW22" s="45"/>
-      <c r="CX22" s="45"/>
-      <c r="CY22" s="45"/>
-      <c r="CZ22" s="45"/>
-      <c r="DA22" s="45"/>
-      <c r="DB22" s="45"/>
-      <c r="DC22" s="45"/>
-      <c r="DD22" s="45"/>
-      <c r="DE22" s="45"/>
-      <c r="DF22" s="45"/>
+    <row r="22" spans="1:696" ht="14.25" customHeight="1">
+      <c r="A22" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="68"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="68"/>
+      <c r="BJ22" s="68"/>
+      <c r="BK22" s="68"/>
+      <c r="BL22" s="68"/>
+      <c r="BM22" s="68"/>
+      <c r="BN22" s="68"/>
+      <c r="BO22" s="68"/>
+      <c r="BP22" s="68"/>
+      <c r="BQ22" s="68"/>
+      <c r="BR22" s="68"/>
+      <c r="BS22" s="68"/>
+      <c r="BT22" s="68"/>
+      <c r="BU22" s="68"/>
+      <c r="BV22" s="68"/>
+      <c r="BW22" s="68"/>
+      <c r="BX22" s="68"/>
+      <c r="BY22" s="68"/>
+      <c r="BZ22" s="68"/>
+      <c r="CA22" s="68"/>
+      <c r="CB22" s="68"/>
+      <c r="CC22" s="68"/>
+      <c r="CD22" s="68"/>
+      <c r="CE22" s="68"/>
+      <c r="CF22" s="68"/>
+      <c r="CG22" s="68"/>
+      <c r="CH22" s="68"/>
+      <c r="CI22" s="68"/>
+      <c r="CJ22" s="68"/>
+      <c r="CK22" s="68"/>
+      <c r="CL22" s="68"/>
+      <c r="CM22" s="68"/>
+      <c r="CN22" s="68"/>
+      <c r="CO22" s="68"/>
+      <c r="CP22" s="68"/>
+      <c r="CQ22" s="68"/>
+      <c r="CR22" s="68"/>
+      <c r="CS22" s="68"/>
+      <c r="CT22" s="68"/>
+      <c r="CU22" s="68"/>
+      <c r="CV22" s="68"/>
+      <c r="CW22" s="68"/>
+      <c r="CX22" s="68"/>
+      <c r="CY22" s="68"/>
+      <c r="CZ22" s="68"/>
+      <c r="DA22" s="68"/>
+      <c r="DB22" s="68"/>
+      <c r="DC22" s="68"/>
+      <c r="DD22" s="68"/>
+      <c r="DE22" s="68"/>
       <c r="DG22" s="45"/>
       <c r="DH22" s="45"/>
       <c r="DI22" s="45"/>
@@ -16358,116 +16372,116 @@
       <c r="ZS22" s="45"/>
       <c r="ZT22" s="45"/>
     </row>
-    <row r="23" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="41"/>
-      <c r="BQ23" s="41"/>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="41"/>
-      <c r="CE23" s="41"/>
-      <c r="CF23" s="41"/>
-      <c r="CG23" s="41"/>
-      <c r="CH23" s="41"/>
-      <c r="CI23" s="41"/>
-      <c r="CJ23" s="41"/>
-      <c r="CK23" s="41"/>
-      <c r="CL23" s="41"/>
-      <c r="CM23" s="41"/>
-      <c r="CN23" s="41"/>
-      <c r="CO23" s="41"/>
-      <c r="CP23" s="41"/>
-      <c r="CQ23" s="41"/>
-      <c r="CR23" s="41"/>
-      <c r="CS23" s="41"/>
-      <c r="CT23" s="41"/>
-      <c r="CU23" s="41"/>
-      <c r="CV23" s="41"/>
-      <c r="CW23" s="41"/>
-      <c r="CX23" s="41"/>
-      <c r="CY23" s="41"/>
-      <c r="CZ23" s="41"/>
-      <c r="DA23" s="41"/>
-      <c r="DB23" s="41"/>
-      <c r="DC23" s="41"/>
-      <c r="DD23" s="41"/>
-      <c r="DE23" s="41"/>
+    <row r="23" spans="1:696" ht="4.5" customHeight="1">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="45"/>
+      <c r="BM23" s="45"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="45"/>
+      <c r="BP23" s="45"/>
+      <c r="BQ23" s="45"/>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="45"/>
+      <c r="BT23" s="45"/>
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="45"/>
+      <c r="BX23" s="45"/>
+      <c r="BY23" s="45"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="45"/>
+      <c r="CB23" s="45"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="45"/>
+      <c r="CE23" s="45"/>
+      <c r="CF23" s="45"/>
+      <c r="CG23" s="45"/>
+      <c r="CH23" s="45"/>
+      <c r="CI23" s="45"/>
+      <c r="CJ23" s="45"/>
+      <c r="CK23" s="45"/>
+      <c r="CL23" s="45"/>
+      <c r="CM23" s="45"/>
+      <c r="CN23" s="45"/>
+      <c r="CO23" s="45"/>
+      <c r="CP23" s="45"/>
+      <c r="CQ23" s="45"/>
+      <c r="CR23" s="45"/>
+      <c r="CS23" s="45"/>
+      <c r="CT23" s="45"/>
+      <c r="CU23" s="45"/>
+      <c r="CV23" s="45"/>
+      <c r="CW23" s="45"/>
+      <c r="CX23" s="45"/>
+      <c r="CY23" s="45"/>
+      <c r="CZ23" s="45"/>
+      <c r="DA23" s="45"/>
+      <c r="DB23" s="45"/>
+      <c r="DC23" s="45"/>
+      <c r="DD23" s="45"/>
+      <c r="DE23" s="45"/>
+      <c r="DF23" s="45"/>
       <c r="DG23" s="45"/>
       <c r="DH23" s="45"/>
       <c r="DI23" s="45"/>
@@ -17036,7 +17050,8 @@
       <c r="YZ23" s="45"/>
       <c r="ZA23" s="45"/>
       <c r="ZB23" s="45"/>
-      <c r="ZC23" s="40"/>
+      <c r="ZC23" s="45"/>
+      <c r="ZD23" s="45"/>
       <c r="ZE23" s="45"/>
       <c r="ZF23" s="45"/>
       <c r="ZG23" s="45"/>
@@ -17054,116 +17069,116 @@
       <c r="ZS23" s="45"/>
       <c r="ZT23" s="45"/>
     </row>
-    <row r="24" spans="1:696" ht="6" customHeight="1">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="45"/>
-      <c r="BM24" s="45"/>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="45"/>
-      <c r="BQ24" s="45"/>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="45"/>
-      <c r="BY24" s="45"/>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CB24" s="45"/>
-      <c r="CC24" s="45"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CF24" s="45"/>
-      <c r="CG24" s="45"/>
-      <c r="CH24" s="45"/>
-      <c r="CI24" s="45"/>
-      <c r="CJ24" s="45"/>
-      <c r="CK24" s="45"/>
-      <c r="CL24" s="45"/>
-      <c r="CM24" s="45"/>
-      <c r="CN24" s="45"/>
-      <c r="CO24" s="45"/>
-      <c r="CP24" s="45"/>
-      <c r="CQ24" s="45"/>
-      <c r="CR24" s="45"/>
-      <c r="CS24" s="45"/>
-      <c r="CT24" s="45"/>
-      <c r="CU24" s="45"/>
-      <c r="CV24" s="45"/>
-      <c r="CW24" s="45"/>
-      <c r="CX24" s="45"/>
-      <c r="CY24" s="45"/>
-      <c r="CZ24" s="45"/>
-      <c r="DA24" s="45"/>
-      <c r="DB24" s="45"/>
-      <c r="DC24" s="45"/>
-      <c r="DD24" s="45"/>
-      <c r="DE24" s="45"/>
-      <c r="DF24" s="45"/>
+    <row r="24" spans="1:696" ht="14.25" customHeight="1">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="41"/>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="41"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="41"/>
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="41"/>
+      <c r="BR24" s="41"/>
+      <c r="BS24" s="41"/>
+      <c r="BT24" s="41"/>
+      <c r="BU24" s="41"/>
+      <c r="BV24" s="41"/>
+      <c r="BW24" s="41"/>
+      <c r="BX24" s="41"/>
+      <c r="BY24" s="41"/>
+      <c r="BZ24" s="41"/>
+      <c r="CA24" s="41"/>
+      <c r="CB24" s="41"/>
+      <c r="CC24" s="41"/>
+      <c r="CD24" s="41"/>
+      <c r="CE24" s="41"/>
+      <c r="CF24" s="41"/>
+      <c r="CG24" s="41"/>
+      <c r="CH24" s="41"/>
+      <c r="CI24" s="41"/>
+      <c r="CJ24" s="41"/>
+      <c r="CK24" s="41"/>
+      <c r="CL24" s="41"/>
+      <c r="CM24" s="41"/>
+      <c r="CN24" s="41"/>
+      <c r="CO24" s="41"/>
+      <c r="CP24" s="41"/>
+      <c r="CQ24" s="41"/>
+      <c r="CR24" s="41"/>
+      <c r="CS24" s="41"/>
+      <c r="CT24" s="41"/>
+      <c r="CU24" s="41"/>
+      <c r="CV24" s="41"/>
+      <c r="CW24" s="41"/>
+      <c r="CX24" s="41"/>
+      <c r="CY24" s="41"/>
+      <c r="CZ24" s="41"/>
+      <c r="DA24" s="41"/>
+      <c r="DB24" s="41"/>
+      <c r="DC24" s="41"/>
+      <c r="DD24" s="41"/>
+      <c r="DE24" s="41"/>
       <c r="DG24" s="45"/>
       <c r="DH24" s="45"/>
       <c r="DI24" s="45"/>
@@ -17732,8 +17747,7 @@
       <c r="YZ24" s="45"/>
       <c r="ZA24" s="45"/>
       <c r="ZB24" s="45"/>
-      <c r="ZC24" s="45"/>
-      <c r="ZD24" s="45"/>
+      <c r="ZC24" s="40"/>
       <c r="ZE24" s="45"/>
       <c r="ZF24" s="45"/>
       <c r="ZG24" s="45"/>
@@ -17751,103 +17765,101 @@
       <c r="ZS24" s="45"/>
       <c r="ZT24" s="45"/>
     </row>
-    <row r="25" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A25" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AI25" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
-      <c r="BF25" s="69"/>
-      <c r="BG25" s="69"/>
-      <c r="BH25" s="69"/>
-      <c r="BI25" s="69"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="69"/>
-      <c r="BL25" s="69"/>
-      <c r="BM25" s="69"/>
-      <c r="BO25" s="46"/>
-      <c r="BP25" s="46"/>
-      <c r="BQ25" s="46"/>
-      <c r="BR25" s="46"/>
-      <c r="BS25" s="46"/>
-      <c r="BT25" s="46"/>
-      <c r="BU25" s="46"/>
-      <c r="BV25" s="46"/>
-      <c r="BW25" s="46"/>
-      <c r="BX25" s="46"/>
-      <c r="BY25" s="46"/>
-      <c r="BZ25" s="46"/>
-      <c r="CA25" s="46"/>
-      <c r="CB25" s="46"/>
-      <c r="CC25" s="46"/>
-      <c r="CD25" s="46"/>
-      <c r="CE25" s="46"/>
-      <c r="CF25" s="46"/>
-      <c r="CG25" s="46"/>
-      <c r="CH25" s="46"/>
-      <c r="CI25" s="46"/>
-      <c r="CJ25" s="46"/>
-      <c r="CK25" s="46"/>
-      <c r="CL25" s="46"/>
-      <c r="CM25" s="46"/>
-      <c r="CN25" s="46"/>
-      <c r="CO25" s="46"/>
-      <c r="CP25" s="46"/>
+    <row r="25" spans="1:696" ht="6" customHeight="1">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="45"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="45"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="45"/>
+      <c r="BL25" s="45"/>
+      <c r="BM25" s="45"/>
+      <c r="BN25" s="45"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="45"/>
+      <c r="BX25" s="45"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="45"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="45"/>
+      <c r="CE25" s="45"/>
+      <c r="CF25" s="45"/>
+      <c r="CG25" s="45"/>
+      <c r="CH25" s="45"/>
+      <c r="CI25" s="45"/>
+      <c r="CJ25" s="45"/>
+      <c r="CK25" s="45"/>
+      <c r="CL25" s="45"/>
+      <c r="CM25" s="45"/>
+      <c r="CN25" s="45"/>
+      <c r="CO25" s="45"/>
+      <c r="CP25" s="45"/>
+      <c r="CQ25" s="45"/>
       <c r="CR25" s="45"/>
       <c r="CS25" s="45"/>
       <c r="CT25" s="45"/>
@@ -18448,116 +18460,115 @@
       <c r="ZQ25" s="45"/>
       <c r="ZR25" s="45"/>
       <c r="ZS25" s="45"/>
-      <c r="ZT25" s="6" t="s">
+      <c r="ZT25" s="45"/>
+    </row>
+    <row r="26" spans="1:696" ht="14.25" customHeight="1">
+      <c r="A26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AI26" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:696" ht="14.25" customHeight="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="45"/>
-      <c r="BM26" s="45"/>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="45"/>
-      <c r="BP26" s="45"/>
-      <c r="BQ26" s="45"/>
-      <c r="BR26" s="45"/>
-      <c r="BS26" s="45"/>
-      <c r="BT26" s="45"/>
-      <c r="BU26" s="45"/>
-      <c r="BV26" s="45"/>
-      <c r="BW26" s="45"/>
-      <c r="BX26" s="45"/>
-      <c r="BY26" s="45"/>
-      <c r="BZ26" s="45"/>
-      <c r="CA26" s="45"/>
-      <c r="CB26" s="45"/>
-      <c r="CC26" s="45"/>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="45"/>
-      <c r="CF26" s="45"/>
-      <c r="CG26" s="45"/>
-      <c r="CH26" s="45"/>
-      <c r="CI26" s="45"/>
-      <c r="CJ26" s="45"/>
-      <c r="CK26" s="45"/>
-      <c r="CL26" s="45"/>
-      <c r="CM26" s="45"/>
-      <c r="CN26" s="45"/>
-      <c r="CO26" s="45"/>
-      <c r="CP26" s="45"/>
-      <c r="CQ26" s="45"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="69"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="69"/>
+      <c r="BD26" s="69"/>
+      <c r="BE26" s="69"/>
+      <c r="BF26" s="69"/>
+      <c r="BG26" s="69"/>
+      <c r="BH26" s="69"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="69"/>
+      <c r="BK26" s="69"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="46"/>
+      <c r="BQ26" s="46"/>
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="46"/>
+      <c r="BU26" s="46"/>
+      <c r="BV26" s="46"/>
+      <c r="BW26" s="46"/>
+      <c r="BX26" s="46"/>
+      <c r="BY26" s="46"/>
+      <c r="BZ26" s="46"/>
+      <c r="CA26" s="46"/>
+      <c r="CB26" s="46"/>
+      <c r="CC26" s="46"/>
+      <c r="CD26" s="46"/>
+      <c r="CE26" s="46"/>
+      <c r="CF26" s="46"/>
+      <c r="CG26" s="46"/>
+      <c r="CH26" s="46"/>
+      <c r="CI26" s="46"/>
+      <c r="CJ26" s="46"/>
+      <c r="CK26" s="46"/>
+      <c r="CL26" s="46"/>
+      <c r="CM26" s="46"/>
+      <c r="CN26" s="46"/>
+      <c r="CO26" s="46"/>
+      <c r="CP26" s="46"/>
       <c r="CR26" s="45"/>
       <c r="CS26" s="45"/>
       <c r="CT26" s="45"/>
-      <c r="CU26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CV26" s="4"/>
-      <c r="CW26" s="4"/>
-      <c r="CX26" s="4"/>
-      <c r="CY26" s="4"/>
-      <c r="CZ26" s="4"/>
+      <c r="CU26" s="45"/>
+      <c r="CV26" s="45"/>
+      <c r="CW26" s="45"/>
+      <c r="CX26" s="45"/>
+      <c r="CY26" s="45"/>
+      <c r="CZ26" s="45"/>
+      <c r="DA26" s="45"/>
       <c r="DB26" s="45"/>
       <c r="DC26" s="45"/>
       <c r="DD26" s="45"/>
@@ -19148,112 +19159,116 @@
       <c r="ZQ26" s="45"/>
       <c r="ZR26" s="45"/>
       <c r="ZS26" s="45"/>
-      <c r="ZT26" s="45"/>
+      <c r="ZT26" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:696" ht="14.25" customHeight="1">
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="69"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="69"/>
-      <c r="BE27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BG27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BI27" s="69"/>
-      <c r="BJ27" s="69"/>
-      <c r="BK27" s="69"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BO27" s="46"/>
-      <c r="BP27" s="46"/>
-      <c r="BQ27" s="46"/>
-      <c r="BR27" s="46"/>
-      <c r="BS27" s="46"/>
-      <c r="BT27" s="46"/>
-      <c r="BU27" s="46"/>
-      <c r="BV27" s="46"/>
-      <c r="BW27" s="46"/>
-      <c r="BX27" s="46"/>
-      <c r="BY27" s="46"/>
-      <c r="BZ27" s="46"/>
-      <c r="CA27" s="46"/>
-      <c r="CB27" s="46"/>
-      <c r="CC27" s="46"/>
-      <c r="CD27" s="46"/>
-      <c r="CE27" s="46"/>
-      <c r="CF27" s="46"/>
-      <c r="CG27" s="46"/>
-      <c r="CH27" s="46"/>
-      <c r="CI27" s="46"/>
-      <c r="CJ27" s="46"/>
-      <c r="CK27" s="46"/>
-      <c r="CL27" s="46"/>
-      <c r="CM27" s="46"/>
-      <c r="CN27" s="46"/>
-      <c r="CO27" s="46"/>
-      <c r="CP27" s="46"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="45"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="45"/>
+      <c r="BD27" s="45"/>
+      <c r="BE27" s="45"/>
+      <c r="BF27" s="45"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="45"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="45"/>
+      <c r="BL27" s="45"/>
+      <c r="BM27" s="45"/>
+      <c r="BN27" s="45"/>
+      <c r="BO27" s="45"/>
+      <c r="BP27" s="45"/>
+      <c r="BQ27" s="45"/>
+      <c r="BR27" s="45"/>
+      <c r="BS27" s="45"/>
+      <c r="BT27" s="45"/>
+      <c r="BU27" s="45"/>
+      <c r="BV27" s="45"/>
+      <c r="BW27" s="45"/>
+      <c r="BX27" s="45"/>
+      <c r="BY27" s="45"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="45"/>
+      <c r="CB27" s="45"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="45"/>
+      <c r="CE27" s="45"/>
+      <c r="CF27" s="45"/>
+      <c r="CG27" s="45"/>
+      <c r="CH27" s="45"/>
+      <c r="CI27" s="45"/>
+      <c r="CJ27" s="45"/>
+      <c r="CK27" s="45"/>
+      <c r="CL27" s="45"/>
+      <c r="CM27" s="45"/>
+      <c r="CN27" s="45"/>
+      <c r="CO27" s="45"/>
+      <c r="CP27" s="45"/>
+      <c r="CQ27" s="45"/>
       <c r="CR27" s="45"/>
       <c r="CS27" s="45"/>
       <c r="CT27" s="45"/>
-      <c r="CU27" s="45"/>
-      <c r="CV27" s="45"/>
-      <c r="CW27" s="45"/>
-      <c r="CX27" s="45"/>
-      <c r="CY27" s="45"/>
-      <c r="CZ27" s="45"/>
-      <c r="DA27" s="45"/>
+      <c r="CU27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="CV27" s="4"/>
+      <c r="CW27" s="4"/>
+      <c r="CX27" s="4"/>
+      <c r="CY27" s="4"/>
+      <c r="CZ27" s="4"/>
       <c r="DB27" s="45"/>
       <c r="DC27" s="45"/>
       <c r="DD27" s="45"/>
@@ -19846,101 +19861,100 @@
       <c r="ZS27" s="45"/>
       <c r="ZT27" s="45"/>
     </row>
-    <row r="28" spans="1:696" ht="11.25" hidden="1">
+    <row r="28" spans="1:696" ht="14.25" customHeight="1">
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
-      <c r="BG28" s="45"/>
-      <c r="BH28" s="45"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="45"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="45"/>
-      <c r="BR28" s="45"/>
-      <c r="BS28" s="45"/>
-      <c r="BT28" s="45"/>
-      <c r="BU28" s="45"/>
-      <c r="BV28" s="45"/>
-      <c r="BW28" s="45"/>
-      <c r="BX28" s="45"/>
-      <c r="BY28" s="45"/>
-      <c r="BZ28" s="45"/>
-      <c r="CA28" s="45"/>
-      <c r="CB28" s="45"/>
-      <c r="CC28" s="45"/>
-      <c r="CD28" s="45"/>
-      <c r="CE28" s="45"/>
-      <c r="CF28" s="45"/>
-      <c r="CG28" s="45"/>
-      <c r="CH28" s="45"/>
-      <c r="CI28" s="45"/>
-      <c r="CJ28" s="45"/>
-      <c r="CK28" s="45"/>
-      <c r="CL28" s="45"/>
-      <c r="CM28" s="45"/>
-      <c r="CN28" s="45"/>
-      <c r="CO28" s="45"/>
-      <c r="CP28" s="45"/>
-      <c r="CQ28" s="45"/>
+      <c r="D28" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
+      <c r="BF28" s="69"/>
+      <c r="BG28" s="69"/>
+      <c r="BH28" s="69"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="69"/>
+      <c r="BK28" s="69"/>
+      <c r="BL28" s="69"/>
+      <c r="BM28" s="69"/>
+      <c r="BO28" s="46"/>
+      <c r="BP28" s="46"/>
+      <c r="BQ28" s="46"/>
+      <c r="BR28" s="46"/>
+      <c r="BS28" s="46"/>
+      <c r="BT28" s="46"/>
+      <c r="BU28" s="46"/>
+      <c r="BV28" s="46"/>
+      <c r="BW28" s="46"/>
+      <c r="BX28" s="46"/>
+      <c r="BY28" s="46"/>
+      <c r="BZ28" s="46"/>
+      <c r="CA28" s="46"/>
+      <c r="CB28" s="46"/>
+      <c r="CC28" s="46"/>
+      <c r="CD28" s="46"/>
+      <c r="CE28" s="46"/>
+      <c r="CF28" s="46"/>
+      <c r="CG28" s="46"/>
+      <c r="CH28" s="46"/>
+      <c r="CI28" s="46"/>
+      <c r="CJ28" s="46"/>
+      <c r="CK28" s="46"/>
+      <c r="CL28" s="46"/>
+      <c r="CM28" s="46"/>
+      <c r="CN28" s="46"/>
+      <c r="CO28" s="46"/>
+      <c r="CP28" s="46"/>
       <c r="CR28" s="45"/>
       <c r="CS28" s="45"/>
       <c r="CT28" s="45"/>
@@ -19955,6 +19969,7 @@
       <c r="DC28" s="45"/>
       <c r="DD28" s="45"/>
       <c r="DE28" s="45"/>
+      <c r="DF28" s="45"/>
       <c r="DG28" s="45"/>
       <c r="DH28" s="45"/>
       <c r="DI28" s="45"/>
@@ -20304,6 +20319,10 @@
       <c r="QO28" s="45"/>
       <c r="QP28" s="45"/>
       <c r="QQ28" s="45"/>
+      <c r="QR28" s="45"/>
+      <c r="QS28" s="45"/>
+      <c r="QT28" s="45"/>
+      <c r="QU28" s="45"/>
       <c r="QV28" s="45"/>
       <c r="QW28" s="45"/>
       <c r="QX28" s="45"/>
@@ -20517,12 +20536,18 @@
       <c r="YX28" s="45"/>
       <c r="YY28" s="45"/>
       <c r="YZ28" s="45"/>
+      <c r="ZA28" s="45"/>
       <c r="ZB28" s="45"/>
       <c r="ZC28" s="45"/>
+      <c r="ZD28" s="45"/>
       <c r="ZE28" s="45"/>
+      <c r="ZF28" s="45"/>
       <c r="ZG28" s="45"/>
+      <c r="ZH28" s="45"/>
       <c r="ZI28" s="45"/>
+      <c r="ZJ28" s="45"/>
       <c r="ZK28" s="45"/>
+      <c r="ZL28" s="45"/>
       <c r="ZM28" s="45"/>
       <c r="ZN28" s="45"/>
       <c r="ZO28" s="45"/>
@@ -20530,9 +20555,695 @@
       <c r="ZQ28" s="45"/>
       <c r="ZR28" s="45"/>
       <c r="ZS28" s="45"/>
+      <c r="ZT28" s="45"/>
+    </row>
+    <row r="29" spans="1:696" ht="11.25" hidden="1">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="45"/>
+      <c r="BD29" s="45"/>
+      <c r="BE29" s="45"/>
+      <c r="BF29" s="45"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="45"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="45"/>
+      <c r="BL29" s="45"/>
+      <c r="BM29" s="45"/>
+      <c r="BN29" s="45"/>
+      <c r="BO29" s="45"/>
+      <c r="BP29" s="45"/>
+      <c r="BQ29" s="45"/>
+      <c r="BR29" s="45"/>
+      <c r="BS29" s="45"/>
+      <c r="BT29" s="45"/>
+      <c r="BU29" s="45"/>
+      <c r="BV29" s="45"/>
+      <c r="BW29" s="45"/>
+      <c r="BX29" s="45"/>
+      <c r="BY29" s="45"/>
+      <c r="BZ29" s="45"/>
+      <c r="CA29" s="45"/>
+      <c r="CB29" s="45"/>
+      <c r="CC29" s="45"/>
+      <c r="CD29" s="45"/>
+      <c r="CE29" s="45"/>
+      <c r="CF29" s="45"/>
+      <c r="CG29" s="45"/>
+      <c r="CH29" s="45"/>
+      <c r="CI29" s="45"/>
+      <c r="CJ29" s="45"/>
+      <c r="CK29" s="45"/>
+      <c r="CL29" s="45"/>
+      <c r="CM29" s="45"/>
+      <c r="CN29" s="45"/>
+      <c r="CO29" s="45"/>
+      <c r="CP29" s="45"/>
+      <c r="CQ29" s="45"/>
+      <c r="CR29" s="45"/>
+      <c r="CS29" s="45"/>
+      <c r="CT29" s="45"/>
+      <c r="CU29" s="45"/>
+      <c r="CV29" s="45"/>
+      <c r="CW29" s="45"/>
+      <c r="CX29" s="45"/>
+      <c r="CY29" s="45"/>
+      <c r="CZ29" s="45"/>
+      <c r="DA29" s="45"/>
+      <c r="DB29" s="45"/>
+      <c r="DC29" s="45"/>
+      <c r="DD29" s="45"/>
+      <c r="DE29" s="45"/>
+      <c r="DG29" s="45"/>
+      <c r="DH29" s="45"/>
+      <c r="DI29" s="45"/>
+      <c r="DJ29" s="45"/>
+      <c r="DK29" s="45"/>
+      <c r="DL29" s="45"/>
+      <c r="DM29" s="45"/>
+      <c r="DN29" s="45"/>
+      <c r="DO29" s="45"/>
+      <c r="DP29" s="45"/>
+      <c r="DQ29" s="45"/>
+      <c r="DR29" s="45"/>
+      <c r="DS29" s="45"/>
+      <c r="DT29" s="45"/>
+      <c r="DU29" s="45"/>
+      <c r="DV29" s="45"/>
+      <c r="DW29" s="45"/>
+      <c r="DX29" s="45"/>
+      <c r="DY29" s="45"/>
+      <c r="DZ29" s="45"/>
+      <c r="EA29" s="45"/>
+      <c r="EB29" s="45"/>
+      <c r="EC29" s="45"/>
+      <c r="ED29" s="45"/>
+      <c r="EE29" s="45"/>
+      <c r="EF29" s="45"/>
+      <c r="EG29" s="45"/>
+      <c r="EH29" s="45"/>
+      <c r="EI29" s="45"/>
+      <c r="EJ29" s="45"/>
+      <c r="EK29" s="45"/>
+      <c r="EL29" s="45"/>
+      <c r="EM29" s="45"/>
+      <c r="EN29" s="45"/>
+      <c r="EO29" s="45"/>
+      <c r="EP29" s="45"/>
+      <c r="EQ29" s="45"/>
+      <c r="ER29" s="45"/>
+      <c r="ES29" s="45"/>
+      <c r="ET29" s="45"/>
+      <c r="EU29" s="45"/>
+      <c r="EV29" s="45"/>
+      <c r="EW29" s="45"/>
+      <c r="EX29" s="45"/>
+      <c r="EY29" s="45"/>
+      <c r="EZ29" s="45"/>
+      <c r="FA29" s="45"/>
+      <c r="FB29" s="45"/>
+      <c r="FC29" s="45"/>
+      <c r="FD29" s="45"/>
+      <c r="FE29" s="45"/>
+      <c r="FF29" s="45"/>
+      <c r="FG29" s="45"/>
+      <c r="FH29" s="45"/>
+      <c r="FI29" s="45"/>
+      <c r="FJ29" s="45"/>
+      <c r="FK29" s="45"/>
+      <c r="FL29" s="45"/>
+      <c r="FM29" s="45"/>
+      <c r="FN29" s="45"/>
+      <c r="FO29" s="45"/>
+      <c r="FP29" s="45"/>
+      <c r="FQ29" s="45"/>
+      <c r="FR29" s="45"/>
+      <c r="FS29" s="45"/>
+      <c r="FT29" s="45"/>
+      <c r="FU29" s="45"/>
+      <c r="FV29" s="45"/>
+      <c r="FW29" s="45"/>
+      <c r="FX29" s="45"/>
+      <c r="FY29" s="45"/>
+      <c r="FZ29" s="45"/>
+      <c r="GA29" s="45"/>
+      <c r="GB29" s="45"/>
+      <c r="GC29" s="45"/>
+      <c r="GD29" s="45"/>
+      <c r="GE29" s="45"/>
+      <c r="GF29" s="45"/>
+      <c r="GG29" s="45"/>
+      <c r="GH29" s="45"/>
+      <c r="GI29" s="45"/>
+      <c r="GJ29" s="45"/>
+      <c r="GK29" s="45"/>
+      <c r="GL29" s="45"/>
+      <c r="GM29" s="45"/>
+      <c r="GN29" s="45"/>
+      <c r="GO29" s="45"/>
+      <c r="GP29" s="45"/>
+      <c r="GQ29" s="45"/>
+      <c r="GR29" s="45"/>
+      <c r="GS29" s="45"/>
+      <c r="GT29" s="45"/>
+      <c r="GU29" s="45"/>
+      <c r="GV29" s="45"/>
+      <c r="GW29" s="45"/>
+      <c r="GX29" s="45"/>
+      <c r="GY29" s="45"/>
+      <c r="GZ29" s="45"/>
+      <c r="HA29" s="45"/>
+      <c r="HB29" s="45"/>
+      <c r="HC29" s="45"/>
+      <c r="HD29" s="45"/>
+      <c r="HE29" s="45"/>
+      <c r="HF29" s="45"/>
+      <c r="HG29" s="45"/>
+      <c r="HH29" s="45"/>
+      <c r="HI29" s="45"/>
+      <c r="HJ29" s="45"/>
+      <c r="HK29" s="45"/>
+      <c r="HL29" s="45"/>
+      <c r="HM29" s="45"/>
+      <c r="HN29" s="45"/>
+      <c r="HO29" s="45"/>
+      <c r="HP29" s="45"/>
+      <c r="HQ29" s="45"/>
+      <c r="HR29" s="45"/>
+      <c r="HS29" s="45"/>
+      <c r="HT29" s="45"/>
+      <c r="HU29" s="45"/>
+      <c r="HV29" s="45"/>
+      <c r="HW29" s="45"/>
+      <c r="HX29" s="45"/>
+      <c r="HY29" s="45"/>
+      <c r="HZ29" s="45"/>
+      <c r="IA29" s="45"/>
+      <c r="IB29" s="45"/>
+      <c r="IC29" s="45"/>
+      <c r="ID29" s="45"/>
+      <c r="IE29" s="45"/>
+      <c r="IF29" s="45"/>
+      <c r="IG29" s="45"/>
+      <c r="IH29" s="45"/>
+      <c r="II29" s="45"/>
+      <c r="IJ29" s="45"/>
+      <c r="IK29" s="45"/>
+      <c r="IL29" s="45"/>
+      <c r="IM29" s="45"/>
+      <c r="IN29" s="45"/>
+      <c r="IO29" s="45"/>
+      <c r="IP29" s="45"/>
+      <c r="IQ29" s="45"/>
+      <c r="IR29" s="45"/>
+      <c r="IS29" s="45"/>
+      <c r="IT29" s="45"/>
+      <c r="IU29" s="45"/>
+      <c r="IV29" s="45"/>
+      <c r="IW29" s="45"/>
+      <c r="IX29" s="45"/>
+      <c r="IY29" s="45"/>
+      <c r="IZ29" s="45"/>
+      <c r="JA29" s="45"/>
+      <c r="JB29" s="45"/>
+      <c r="JC29" s="45"/>
+      <c r="JD29" s="45"/>
+      <c r="JE29" s="45"/>
+      <c r="JF29" s="45"/>
+      <c r="JG29" s="45"/>
+      <c r="JH29" s="45"/>
+      <c r="JI29" s="45"/>
+      <c r="JJ29" s="45"/>
+      <c r="JK29" s="45"/>
+      <c r="JL29" s="45"/>
+      <c r="JM29" s="45"/>
+      <c r="JN29" s="45"/>
+      <c r="JO29" s="45"/>
+      <c r="JP29" s="45"/>
+      <c r="JQ29" s="45"/>
+      <c r="JR29" s="45"/>
+      <c r="JS29" s="45"/>
+      <c r="JT29" s="45"/>
+      <c r="JU29" s="45"/>
+      <c r="JV29" s="45"/>
+      <c r="JW29" s="45"/>
+      <c r="JX29" s="45"/>
+      <c r="JY29" s="45"/>
+      <c r="JZ29" s="45"/>
+      <c r="KA29" s="45"/>
+      <c r="KB29" s="45"/>
+      <c r="KC29" s="45"/>
+      <c r="KD29" s="45"/>
+      <c r="KE29" s="45"/>
+      <c r="KF29" s="45"/>
+      <c r="KG29" s="45"/>
+      <c r="KH29" s="45"/>
+      <c r="KI29" s="45"/>
+      <c r="KJ29" s="45"/>
+      <c r="KK29" s="45"/>
+      <c r="KL29" s="45"/>
+      <c r="KM29" s="45"/>
+      <c r="KN29" s="45"/>
+      <c r="KO29" s="45"/>
+      <c r="KP29" s="45"/>
+      <c r="KQ29" s="45"/>
+      <c r="KR29" s="45"/>
+      <c r="KS29" s="45"/>
+      <c r="KT29" s="45"/>
+      <c r="KU29" s="45"/>
+      <c r="KV29" s="45"/>
+      <c r="KW29" s="45"/>
+      <c r="KX29" s="45"/>
+      <c r="KY29" s="45"/>
+      <c r="KZ29" s="45"/>
+      <c r="LA29" s="45"/>
+      <c r="LB29" s="45"/>
+      <c r="LC29" s="45"/>
+      <c r="LD29" s="45"/>
+      <c r="LE29" s="45"/>
+      <c r="LF29" s="45"/>
+      <c r="LG29" s="45"/>
+      <c r="LH29" s="45"/>
+      <c r="LI29" s="45"/>
+      <c r="LJ29" s="45"/>
+      <c r="LK29" s="45"/>
+      <c r="LL29" s="45"/>
+      <c r="LM29" s="45"/>
+      <c r="LN29" s="45"/>
+      <c r="LO29" s="45"/>
+      <c r="LP29" s="45"/>
+      <c r="LQ29" s="45"/>
+      <c r="LR29" s="45"/>
+      <c r="LS29" s="45"/>
+      <c r="LT29" s="45"/>
+      <c r="LU29" s="45"/>
+      <c r="LV29" s="45"/>
+      <c r="LW29" s="45"/>
+      <c r="LX29" s="45"/>
+      <c r="LY29" s="45"/>
+      <c r="LZ29" s="45"/>
+      <c r="MA29" s="45"/>
+      <c r="MB29" s="45"/>
+      <c r="MC29" s="45"/>
+      <c r="MD29" s="45"/>
+      <c r="ME29" s="45"/>
+      <c r="MF29" s="45"/>
+      <c r="MG29" s="45"/>
+      <c r="MH29" s="45"/>
+      <c r="MI29" s="45"/>
+      <c r="MJ29" s="45"/>
+      <c r="MK29" s="45"/>
+      <c r="ML29" s="45"/>
+      <c r="MM29" s="45"/>
+      <c r="MN29" s="45"/>
+      <c r="MO29" s="45"/>
+      <c r="MP29" s="45"/>
+      <c r="MQ29" s="45"/>
+      <c r="MR29" s="45"/>
+      <c r="MS29" s="45"/>
+      <c r="MT29" s="45"/>
+      <c r="MU29" s="45"/>
+      <c r="MV29" s="45"/>
+      <c r="MW29" s="45"/>
+      <c r="MX29" s="45"/>
+      <c r="MY29" s="45"/>
+      <c r="MZ29" s="45"/>
+      <c r="NA29" s="45"/>
+      <c r="NB29" s="45"/>
+      <c r="NC29" s="45"/>
+      <c r="ND29" s="45"/>
+      <c r="NE29" s="45"/>
+      <c r="NF29" s="45"/>
+      <c r="NG29" s="45"/>
+      <c r="NH29" s="45"/>
+      <c r="NI29" s="45"/>
+      <c r="NJ29" s="45"/>
+      <c r="NK29" s="45"/>
+      <c r="NL29" s="45"/>
+      <c r="NM29" s="45"/>
+      <c r="NN29" s="45"/>
+      <c r="NO29" s="45"/>
+      <c r="NP29" s="45"/>
+      <c r="NQ29" s="45"/>
+      <c r="NR29" s="45"/>
+      <c r="NS29" s="45"/>
+      <c r="NT29" s="45"/>
+      <c r="NU29" s="45"/>
+      <c r="NV29" s="45"/>
+      <c r="NW29" s="45"/>
+      <c r="NX29" s="45"/>
+      <c r="NY29" s="45"/>
+      <c r="NZ29" s="45"/>
+      <c r="OA29" s="45"/>
+      <c r="OB29" s="45"/>
+      <c r="OC29" s="45"/>
+      <c r="OD29" s="45"/>
+      <c r="OE29" s="45"/>
+      <c r="OF29" s="45"/>
+      <c r="OG29" s="45"/>
+      <c r="OH29" s="45"/>
+      <c r="OI29" s="45"/>
+      <c r="OJ29" s="45"/>
+      <c r="OK29" s="45"/>
+      <c r="OL29" s="45"/>
+      <c r="OM29" s="45"/>
+      <c r="ON29" s="45"/>
+      <c r="OO29" s="45"/>
+      <c r="OP29" s="45"/>
+      <c r="OQ29" s="45"/>
+      <c r="OR29" s="45"/>
+      <c r="OS29" s="45"/>
+      <c r="OT29" s="45"/>
+      <c r="OU29" s="45"/>
+      <c r="OV29" s="45"/>
+      <c r="OW29" s="45"/>
+      <c r="OX29" s="45"/>
+      <c r="OY29" s="45"/>
+      <c r="OZ29" s="45"/>
+      <c r="PA29" s="45"/>
+      <c r="PB29" s="45"/>
+      <c r="PC29" s="45"/>
+      <c r="PD29" s="45"/>
+      <c r="PE29" s="45"/>
+      <c r="PF29" s="45"/>
+      <c r="PG29" s="45"/>
+      <c r="PH29" s="45"/>
+      <c r="PI29" s="45"/>
+      <c r="PJ29" s="45"/>
+      <c r="PK29" s="45"/>
+      <c r="PL29" s="45"/>
+      <c r="PM29" s="45"/>
+      <c r="PN29" s="45"/>
+      <c r="PO29" s="45"/>
+      <c r="PP29" s="45"/>
+      <c r="PQ29" s="45"/>
+      <c r="PR29" s="45"/>
+      <c r="PS29" s="45"/>
+      <c r="PT29" s="45"/>
+      <c r="PU29" s="45"/>
+      <c r="PV29" s="45"/>
+      <c r="PW29" s="45"/>
+      <c r="PX29" s="45"/>
+      <c r="PY29" s="45"/>
+      <c r="PZ29" s="45"/>
+      <c r="QA29" s="45"/>
+      <c r="QB29" s="45"/>
+      <c r="QC29" s="45"/>
+      <c r="QD29" s="45"/>
+      <c r="QE29" s="45"/>
+      <c r="QF29" s="45"/>
+      <c r="QG29" s="45"/>
+      <c r="QH29" s="45"/>
+      <c r="QI29" s="45"/>
+      <c r="QJ29" s="45"/>
+      <c r="QK29" s="45"/>
+      <c r="QL29" s="45"/>
+      <c r="QM29" s="45"/>
+      <c r="QN29" s="45"/>
+      <c r="QO29" s="45"/>
+      <c r="QP29" s="45"/>
+      <c r="QQ29" s="45"/>
+      <c r="QV29" s="45"/>
+      <c r="QW29" s="45"/>
+      <c r="QX29" s="45"/>
+      <c r="QY29" s="45"/>
+      <c r="QZ29" s="45"/>
+      <c r="RA29" s="45"/>
+      <c r="RB29" s="45"/>
+      <c r="RC29" s="45"/>
+      <c r="RD29" s="45"/>
+      <c r="RE29" s="45"/>
+      <c r="RF29" s="45"/>
+      <c r="RG29" s="45"/>
+      <c r="RH29" s="45"/>
+      <c r="RI29" s="45"/>
+      <c r="RJ29" s="45"/>
+      <c r="RK29" s="45"/>
+      <c r="RL29" s="45"/>
+      <c r="RM29" s="45"/>
+      <c r="RN29" s="45"/>
+      <c r="RO29" s="45"/>
+      <c r="RP29" s="45"/>
+      <c r="RQ29" s="45"/>
+      <c r="RR29" s="45"/>
+      <c r="RS29" s="45"/>
+      <c r="RT29" s="45"/>
+      <c r="RU29" s="45"/>
+      <c r="RV29" s="45"/>
+      <c r="RW29" s="45"/>
+      <c r="RX29" s="45"/>
+      <c r="RY29" s="45"/>
+      <c r="RZ29" s="45"/>
+      <c r="SA29" s="45"/>
+      <c r="SB29" s="45"/>
+      <c r="SC29" s="45"/>
+      <c r="SD29" s="45"/>
+      <c r="SE29" s="45"/>
+      <c r="SF29" s="45"/>
+      <c r="SG29" s="45"/>
+      <c r="SH29" s="45"/>
+      <c r="SI29" s="45"/>
+      <c r="SJ29" s="45"/>
+      <c r="SK29" s="45"/>
+      <c r="SL29" s="45"/>
+      <c r="SM29" s="45"/>
+      <c r="SN29" s="45"/>
+      <c r="SO29" s="45"/>
+      <c r="SP29" s="45"/>
+      <c r="SQ29" s="45"/>
+      <c r="SR29" s="45"/>
+      <c r="SS29" s="45"/>
+      <c r="ST29" s="45"/>
+      <c r="SU29" s="45"/>
+      <c r="SV29" s="45"/>
+      <c r="SW29" s="45"/>
+      <c r="SX29" s="45"/>
+      <c r="SY29" s="45"/>
+      <c r="SZ29" s="45"/>
+      <c r="TA29" s="45"/>
+      <c r="TB29" s="45"/>
+      <c r="TC29" s="45"/>
+      <c r="TD29" s="45"/>
+      <c r="TE29" s="45"/>
+      <c r="TF29" s="45"/>
+      <c r="TG29" s="45"/>
+      <c r="TH29" s="45"/>
+      <c r="TI29" s="45"/>
+      <c r="TJ29" s="45"/>
+      <c r="TK29" s="45"/>
+      <c r="TL29" s="45"/>
+      <c r="TM29" s="45"/>
+      <c r="TN29" s="45"/>
+      <c r="TO29" s="45"/>
+      <c r="TP29" s="45"/>
+      <c r="TQ29" s="45"/>
+      <c r="TR29" s="45"/>
+      <c r="TS29" s="45"/>
+      <c r="TT29" s="45"/>
+      <c r="TU29" s="45"/>
+      <c r="TV29" s="45"/>
+      <c r="TW29" s="45"/>
+      <c r="TX29" s="45"/>
+      <c r="TY29" s="45"/>
+      <c r="TZ29" s="45"/>
+      <c r="UA29" s="45"/>
+      <c r="UB29" s="45"/>
+      <c r="UC29" s="45"/>
+      <c r="UD29" s="45"/>
+      <c r="UE29" s="45"/>
+      <c r="UF29" s="45"/>
+      <c r="UG29" s="45"/>
+      <c r="UH29" s="45"/>
+      <c r="UI29" s="45"/>
+      <c r="UJ29" s="45"/>
+      <c r="UK29" s="45"/>
+      <c r="UL29" s="45"/>
+      <c r="UM29" s="45"/>
+      <c r="UN29" s="45"/>
+      <c r="UO29" s="45"/>
+      <c r="UP29" s="45"/>
+      <c r="UQ29" s="45"/>
+      <c r="UR29" s="45"/>
+      <c r="US29" s="45"/>
+      <c r="UT29" s="45"/>
+      <c r="UU29" s="45"/>
+      <c r="UV29" s="45"/>
+      <c r="UW29" s="45"/>
+      <c r="UX29" s="45"/>
+      <c r="UY29" s="45"/>
+      <c r="UZ29" s="45"/>
+      <c r="VA29" s="45"/>
+      <c r="VB29" s="45"/>
+      <c r="VC29" s="45"/>
+      <c r="VD29" s="45"/>
+      <c r="VE29" s="45"/>
+      <c r="VF29" s="45"/>
+      <c r="VG29" s="45"/>
+      <c r="VH29" s="45"/>
+      <c r="VI29" s="45"/>
+      <c r="VJ29" s="45"/>
+      <c r="VK29" s="45"/>
+      <c r="VL29" s="45"/>
+      <c r="VM29" s="45"/>
+      <c r="VN29" s="45"/>
+      <c r="VO29" s="45"/>
+      <c r="VP29" s="45"/>
+      <c r="VQ29" s="45"/>
+      <c r="VR29" s="45"/>
+      <c r="VS29" s="45"/>
+      <c r="VT29" s="45"/>
+      <c r="VU29" s="45"/>
+      <c r="VV29" s="45"/>
+      <c r="VW29" s="45"/>
+      <c r="VX29" s="45"/>
+      <c r="VY29" s="45"/>
+      <c r="VZ29" s="45"/>
+      <c r="WA29" s="45"/>
+      <c r="WB29" s="45"/>
+      <c r="WC29" s="45"/>
+      <c r="WD29" s="45"/>
+      <c r="WE29" s="45"/>
+      <c r="WF29" s="45"/>
+      <c r="WG29" s="45"/>
+      <c r="WH29" s="45"/>
+      <c r="WI29" s="45"/>
+      <c r="WJ29" s="45"/>
+      <c r="WK29" s="45"/>
+      <c r="WL29" s="45"/>
+      <c r="WM29" s="45"/>
+      <c r="WN29" s="45"/>
+      <c r="WO29" s="45"/>
+      <c r="WP29" s="45"/>
+      <c r="WQ29" s="45"/>
+      <c r="WR29" s="45"/>
+      <c r="WS29" s="45"/>
+      <c r="WT29" s="45"/>
+      <c r="WU29" s="45"/>
+      <c r="WV29" s="45"/>
+      <c r="WW29" s="45"/>
+      <c r="WX29" s="45"/>
+      <c r="WY29" s="45"/>
+      <c r="WZ29" s="45"/>
+      <c r="XA29" s="45"/>
+      <c r="XB29" s="45"/>
+      <c r="XC29" s="45"/>
+      <c r="XD29" s="45"/>
+      <c r="XE29" s="45"/>
+      <c r="XF29" s="45"/>
+      <c r="XG29" s="45"/>
+      <c r="XH29" s="45"/>
+      <c r="XI29" s="45"/>
+      <c r="XJ29" s="45"/>
+      <c r="XK29" s="45"/>
+      <c r="XL29" s="45"/>
+      <c r="XM29" s="45"/>
+      <c r="XN29" s="45"/>
+      <c r="XO29" s="45"/>
+      <c r="XP29" s="45"/>
+      <c r="XQ29" s="45"/>
+      <c r="XR29" s="45"/>
+      <c r="XS29" s="45"/>
+      <c r="XT29" s="45"/>
+      <c r="XU29" s="45"/>
+      <c r="XV29" s="45"/>
+      <c r="XW29" s="45"/>
+      <c r="XX29" s="45"/>
+      <c r="XY29" s="45"/>
+      <c r="XZ29" s="45"/>
+      <c r="YA29" s="45"/>
+      <c r="YB29" s="45"/>
+      <c r="YC29" s="45"/>
+      <c r="YD29" s="45"/>
+      <c r="YE29" s="45"/>
+      <c r="YF29" s="45"/>
+      <c r="YG29" s="45"/>
+      <c r="YH29" s="45"/>
+      <c r="YI29" s="45"/>
+      <c r="YJ29" s="45"/>
+      <c r="YK29" s="45"/>
+      <c r="YL29" s="45"/>
+      <c r="YM29" s="45"/>
+      <c r="YN29" s="45"/>
+      <c r="YO29" s="45"/>
+      <c r="YP29" s="45"/>
+      <c r="YQ29" s="45"/>
+      <c r="YR29" s="45"/>
+      <c r="YS29" s="45"/>
+      <c r="YT29" s="45"/>
+      <c r="YU29" s="45"/>
+      <c r="YV29" s="45"/>
+      <c r="YW29" s="45"/>
+      <c r="YX29" s="45"/>
+      <c r="YY29" s="45"/>
+      <c r="YZ29" s="45"/>
+      <c r="ZB29" s="45"/>
+      <c r="ZC29" s="45"/>
+      <c r="ZE29" s="45"/>
+      <c r="ZG29" s="45"/>
+      <c r="ZI29" s="45"/>
+      <c r="ZK29" s="45"/>
+      <c r="ZM29" s="45"/>
+      <c r="ZN29" s="45"/>
+      <c r="ZO29" s="45"/>
+      <c r="ZP29" s="45"/>
+      <c r="ZQ29" s="45"/>
+      <c r="ZR29" s="45"/>
+      <c r="ZS29" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="46">
     <mergeCell ref="A1:DE1"/>
     <mergeCell ref="A2:DE2"/>
     <mergeCell ref="A3:DE3"/>
@@ -20560,18 +21271,25 @@
     <mergeCell ref="BY18:CF18"/>
     <mergeCell ref="CG18:CM18"/>
     <mergeCell ref="CN18:DE18"/>
-    <mergeCell ref="A19:CM19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:BA19"/>
+    <mergeCell ref="BB19:BO19"/>
+    <mergeCell ref="BP19:BX19"/>
+    <mergeCell ref="BY19:CF19"/>
+    <mergeCell ref="CG19:CM19"/>
     <mergeCell ref="CN19:DE19"/>
-    <mergeCell ref="A20:DE20"/>
+    <mergeCell ref="A20:CM20"/>
+    <mergeCell ref="CN20:DE20"/>
     <mergeCell ref="A21:DE21"/>
-    <mergeCell ref="A23:DE23"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="AI25:BM25"/>
-    <mergeCell ref="BO25:CP25"/>
-    <mergeCell ref="CU26:CZ26"/>
-    <mergeCell ref="D27:AG27"/>
-    <mergeCell ref="AI27:BM27"/>
-    <mergeCell ref="BO27:CP27"/>
+    <mergeCell ref="A22:DE22"/>
+    <mergeCell ref="A24:DE24"/>
+    <mergeCell ref="A26:AG26"/>
+    <mergeCell ref="AI26:BM26"/>
+    <mergeCell ref="BO26:CP26"/>
+    <mergeCell ref="CU27:CZ27"/>
+    <mergeCell ref="D28:AG28"/>
+    <mergeCell ref="AI28:BM28"/>
+    <mergeCell ref="BO28:CP28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -20580,7 +21298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b07861c1-9f66-4677-b5b0-5af35a7e55c5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d952c594-a4d8-453c-98ba-da55d7bfbdb3}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/invoice/utils/output.xlsx
+++ b/invoice/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>ООО "УМСКУЛ"</t>
   </si>
@@ -940,8 +940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d7a8f28b-61cb-45b0-8d84-3a83d7ad9b92}">
-  <dimension ref="A1:ZT29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{abbaf6f1-5cb9-4912-9710-70985e460a84}">
+  <dimension ref="A1:ZT28"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -13564,129 +13564,119 @@
       <c r="ZS18" s="45"/>
     </row>
     <row r="19" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A19" s="55">
-        <v>1</v>
+      <c r="A19" s="62" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="59" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="62"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="62"/>
+      <c r="BT19" s="62"/>
+      <c r="BU19" s="62"/>
+      <c r="BV19" s="62"/>
+      <c r="BW19" s="62"/>
+      <c r="BX19" s="62"/>
+      <c r="BY19" s="62"/>
+      <c r="BZ19" s="62"/>
+      <c r="CA19" s="62"/>
+      <c r="CB19" s="62"/>
+      <c r="CC19" s="62"/>
+      <c r="CD19" s="62"/>
+      <c r="CE19" s="62"/>
+      <c r="CF19" s="62"/>
+      <c r="CG19" s="62"/>
+      <c r="CH19" s="62"/>
+      <c r="CI19" s="62"/>
+      <c r="CJ19" s="62"/>
+      <c r="CK19" s="62"/>
+      <c r="CL19" s="62"/>
+      <c r="CM19" s="62"/>
+      <c r="CN19" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
-      <c r="BP19" s="60">
-        <v>36526</v>
-      </c>
-      <c r="BQ19" s="54"/>
-      <c r="BR19" s="54"/>
-      <c r="BS19" s="54"/>
-      <c r="BT19" s="54"/>
-      <c r="BU19" s="54"/>
-      <c r="BV19" s="54"/>
-      <c r="BW19" s="54"/>
-      <c r="BX19" s="54"/>
-      <c r="BY19" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ19" s="54"/>
-      <c r="CA19" s="54"/>
-      <c r="CB19" s="54"/>
-      <c r="CC19" s="54"/>
-      <c r="CD19" s="54"/>
-      <c r="CE19" s="54"/>
-      <c r="CF19" s="54"/>
-      <c r="CG19" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="CH19" s="54"/>
-      <c r="CI19" s="54"/>
-      <c r="CJ19" s="54"/>
-      <c r="CK19" s="54"/>
-      <c r="CL19" s="54"/>
-      <c r="CM19" s="54"/>
-      <c r="CN19" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="CO19" s="59"/>
-      <c r="CP19" s="59"/>
-      <c r="CQ19" s="59"/>
-      <c r="CR19" s="59"/>
-      <c r="CS19" s="59"/>
-      <c r="CT19" s="59"/>
-      <c r="CU19" s="59"/>
-      <c r="CV19" s="59"/>
-      <c r="CW19" s="59"/>
-      <c r="CX19" s="59"/>
-      <c r="CY19" s="59"/>
-      <c r="CZ19" s="59"/>
-      <c r="DA19" s="59"/>
-      <c r="DB19" s="59"/>
-      <c r="DC19" s="59"/>
-      <c r="DD19" s="59"/>
-      <c r="DE19" s="59"/>
+      <c r="CO19" s="64"/>
+      <c r="CP19" s="64"/>
+      <c r="CQ19" s="64"/>
+      <c r="CR19" s="64"/>
+      <c r="CS19" s="64"/>
+      <c r="CT19" s="64"/>
+      <c r="CU19" s="64"/>
+      <c r="CV19" s="64"/>
+      <c r="CW19" s="64"/>
+      <c r="CX19" s="64"/>
+      <c r="CY19" s="64"/>
+      <c r="CZ19" s="64"/>
+      <c r="DA19" s="64"/>
+      <c r="DB19" s="64"/>
+      <c r="DC19" s="64"/>
+      <c r="DD19" s="64"/>
+      <c r="DE19" s="64"/>
       <c r="DG19" s="45"/>
       <c r="DH19" s="45"/>
       <c r="DI19" s="45"/>
@@ -14258,14 +14248,13 @@
       <c r="ZC19" s="45"/>
       <c r="ZD19" s="45"/>
       <c r="ZE19" s="45"/>
-      <c r="ZF19" s="6" t="s">
-        <v>16</v>
+      <c r="ZF19" s="45"/>
+      <c r="ZG19" s="45"/>
+      <c r="ZH19" s="45"/>
+      <c r="ZI19" s="45"/>
+      <c r="ZJ19" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="ZG19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="ZI19" s="45"/>
-      <c r="ZK19" s="45"/>
       <c r="ZM19" s="45"/>
       <c r="ZN19" s="45"/>
       <c r="ZO19" s="45"/>
@@ -14275,119 +14264,117 @@
       <c r="ZS19" s="45"/>
     </row>
     <row r="20" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A20" s="62" t="s">
-        <v>20</v>
+      <c r="A20" s="66" t="s">
+        <v>21</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="62"/>
-      <c r="BP20" s="62"/>
-      <c r="BQ20" s="62"/>
-      <c r="BR20" s="62"/>
-      <c r="BS20" s="62"/>
-      <c r="BT20" s="62"/>
-      <c r="BU20" s="62"/>
-      <c r="BV20" s="62"/>
-      <c r="BW20" s="62"/>
-      <c r="BX20" s="62"/>
-      <c r="BY20" s="62"/>
-      <c r="BZ20" s="62"/>
-      <c r="CA20" s="62"/>
-      <c r="CB20" s="62"/>
-      <c r="CC20" s="62"/>
-      <c r="CD20" s="62"/>
-      <c r="CE20" s="62"/>
-      <c r="CF20" s="62"/>
-      <c r="CG20" s="62"/>
-      <c r="CH20" s="62"/>
-      <c r="CI20" s="62"/>
-      <c r="CJ20" s="62"/>
-      <c r="CK20" s="62"/>
-      <c r="CL20" s="62"/>
-      <c r="CM20" s="62"/>
-      <c r="CN20" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="CO20" s="64"/>
-      <c r="CP20" s="64"/>
-      <c r="CQ20" s="64"/>
-      <c r="CR20" s="64"/>
-      <c r="CS20" s="64"/>
-      <c r="CT20" s="64"/>
-      <c r="CU20" s="64"/>
-      <c r="CV20" s="64"/>
-      <c r="CW20" s="64"/>
-      <c r="CX20" s="64"/>
-      <c r="CY20" s="64"/>
-      <c r="CZ20" s="64"/>
-      <c r="DA20" s="64"/>
-      <c r="DB20" s="64"/>
-      <c r="DC20" s="64"/>
-      <c r="DD20" s="64"/>
-      <c r="DE20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="66"/>
+      <c r="BK20" s="66"/>
+      <c r="BL20" s="66"/>
+      <c r="BM20" s="66"/>
+      <c r="BN20" s="66"/>
+      <c r="BO20" s="66"/>
+      <c r="BP20" s="66"/>
+      <c r="BQ20" s="66"/>
+      <c r="BR20" s="66"/>
+      <c r="BS20" s="66"/>
+      <c r="BT20" s="66"/>
+      <c r="BU20" s="66"/>
+      <c r="BV20" s="66"/>
+      <c r="BW20" s="66"/>
+      <c r="BX20" s="66"/>
+      <c r="BY20" s="66"/>
+      <c r="BZ20" s="66"/>
+      <c r="CA20" s="66"/>
+      <c r="CB20" s="66"/>
+      <c r="CC20" s="66"/>
+      <c r="CD20" s="66"/>
+      <c r="CE20" s="66"/>
+      <c r="CF20" s="66"/>
+      <c r="CG20" s="66"/>
+      <c r="CH20" s="66"/>
+      <c r="CI20" s="66"/>
+      <c r="CJ20" s="66"/>
+      <c r="CK20" s="66"/>
+      <c r="CL20" s="66"/>
+      <c r="CM20" s="66"/>
+      <c r="CN20" s="66"/>
+      <c r="CO20" s="66"/>
+      <c r="CP20" s="66"/>
+      <c r="CQ20" s="66"/>
+      <c r="CR20" s="66"/>
+      <c r="CS20" s="66"/>
+      <c r="CT20" s="66"/>
+      <c r="CU20" s="66"/>
+      <c r="CV20" s="66"/>
+      <c r="CW20" s="66"/>
+      <c r="CX20" s="66"/>
+      <c r="CY20" s="66"/>
+      <c r="CZ20" s="66"/>
+      <c r="DA20" s="66"/>
+      <c r="DB20" s="66"/>
+      <c r="DC20" s="66"/>
+      <c r="DD20" s="66"/>
+      <c r="DE20" s="66"/>
       <c r="DG20" s="45"/>
       <c r="DH20" s="45"/>
       <c r="DI20" s="45"/>
@@ -14963,8 +14950,9 @@
       <c r="ZG20" s="45"/>
       <c r="ZH20" s="45"/>
       <c r="ZI20" s="45"/>
-      <c r="ZJ20" s="6" t="s">
-        <v>20</v>
+      <c r="ZJ20" s="45"/>
+      <c r="ZK20" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="ZM20" s="45"/>
       <c r="ZN20" s="45"/>
@@ -14975,117 +14963,117 @@
       <c r="ZS20" s="45"/>
     </row>
     <row r="21" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A21" s="66" t="s">
-        <v>21</v>
+      <c r="A21" s="68" t="s">
+        <v>22</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
-      <c r="BP21" s="66"/>
-      <c r="BQ21" s="66"/>
-      <c r="BR21" s="66"/>
-      <c r="BS21" s="66"/>
-      <c r="BT21" s="66"/>
-      <c r="BU21" s="66"/>
-      <c r="BV21" s="66"/>
-      <c r="BW21" s="66"/>
-      <c r="BX21" s="66"/>
-      <c r="BY21" s="66"/>
-      <c r="BZ21" s="66"/>
-      <c r="CA21" s="66"/>
-      <c r="CB21" s="66"/>
-      <c r="CC21" s="66"/>
-      <c r="CD21" s="66"/>
-      <c r="CE21" s="66"/>
-      <c r="CF21" s="66"/>
-      <c r="CG21" s="66"/>
-      <c r="CH21" s="66"/>
-      <c r="CI21" s="66"/>
-      <c r="CJ21" s="66"/>
-      <c r="CK21" s="66"/>
-      <c r="CL21" s="66"/>
-      <c r="CM21" s="66"/>
-      <c r="CN21" s="66"/>
-      <c r="CO21" s="66"/>
-      <c r="CP21" s="66"/>
-      <c r="CQ21" s="66"/>
-      <c r="CR21" s="66"/>
-      <c r="CS21" s="66"/>
-      <c r="CT21" s="66"/>
-      <c r="CU21" s="66"/>
-      <c r="CV21" s="66"/>
-      <c r="CW21" s="66"/>
-      <c r="CX21" s="66"/>
-      <c r="CY21" s="66"/>
-      <c r="CZ21" s="66"/>
-      <c r="DA21" s="66"/>
-      <c r="DB21" s="66"/>
-      <c r="DC21" s="66"/>
-      <c r="DD21" s="66"/>
-      <c r="DE21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
+      <c r="BP21" s="68"/>
+      <c r="BQ21" s="68"/>
+      <c r="BR21" s="68"/>
+      <c r="BS21" s="68"/>
+      <c r="BT21" s="68"/>
+      <c r="BU21" s="68"/>
+      <c r="BV21" s="68"/>
+      <c r="BW21" s="68"/>
+      <c r="BX21" s="68"/>
+      <c r="BY21" s="68"/>
+      <c r="BZ21" s="68"/>
+      <c r="CA21" s="68"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="68"/>
+      <c r="CE21" s="68"/>
+      <c r="CF21" s="68"/>
+      <c r="CG21" s="68"/>
+      <c r="CH21" s="68"/>
+      <c r="CI21" s="68"/>
+      <c r="CJ21" s="68"/>
+      <c r="CK21" s="68"/>
+      <c r="CL21" s="68"/>
+      <c r="CM21" s="68"/>
+      <c r="CN21" s="68"/>
+      <c r="CO21" s="68"/>
+      <c r="CP21" s="68"/>
+      <c r="CQ21" s="68"/>
+      <c r="CR21" s="68"/>
+      <c r="CS21" s="68"/>
+      <c r="CT21" s="68"/>
+      <c r="CU21" s="68"/>
+      <c r="CV21" s="68"/>
+      <c r="CW21" s="68"/>
+      <c r="CX21" s="68"/>
+      <c r="CY21" s="68"/>
+      <c r="CZ21" s="68"/>
+      <c r="DA21" s="68"/>
+      <c r="DB21" s="68"/>
+      <c r="DC21" s="68"/>
+      <c r="DD21" s="68"/>
+      <c r="DE21" s="68"/>
       <c r="DG21" s="45"/>
       <c r="DH21" s="45"/>
       <c r="DI21" s="45"/>
@@ -15662,9 +15650,8 @@
       <c r="ZH21" s="45"/>
       <c r="ZI21" s="45"/>
       <c r="ZJ21" s="45"/>
-      <c r="ZK21" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="ZK21" s="45"/>
+      <c r="ZL21" s="45"/>
       <c r="ZM21" s="45"/>
       <c r="ZN21" s="45"/>
       <c r="ZO21" s="45"/>
@@ -15672,119 +15659,118 @@
       <c r="ZQ21" s="45"/>
       <c r="ZR21" s="45"/>
       <c r="ZS21" s="45"/>
+      <c r="ZT21" s="45"/>
     </row>
-    <row r="22" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A22" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
-      <c r="BO22" s="68"/>
-      <c r="BP22" s="68"/>
-      <c r="BQ22" s="68"/>
-      <c r="BR22" s="68"/>
-      <c r="BS22" s="68"/>
-      <c r="BT22" s="68"/>
-      <c r="BU22" s="68"/>
-      <c r="BV22" s="68"/>
-      <c r="BW22" s="68"/>
-      <c r="BX22" s="68"/>
-      <c r="BY22" s="68"/>
-      <c r="BZ22" s="68"/>
-      <c r="CA22" s="68"/>
-      <c r="CB22" s="68"/>
-      <c r="CC22" s="68"/>
-      <c r="CD22" s="68"/>
-      <c r="CE22" s="68"/>
-      <c r="CF22" s="68"/>
-      <c r="CG22" s="68"/>
-      <c r="CH22" s="68"/>
-      <c r="CI22" s="68"/>
-      <c r="CJ22" s="68"/>
-      <c r="CK22" s="68"/>
-      <c r="CL22" s="68"/>
-      <c r="CM22" s="68"/>
-      <c r="CN22" s="68"/>
-      <c r="CO22" s="68"/>
-      <c r="CP22" s="68"/>
-      <c r="CQ22" s="68"/>
-      <c r="CR22" s="68"/>
-      <c r="CS22" s="68"/>
-      <c r="CT22" s="68"/>
-      <c r="CU22" s="68"/>
-      <c r="CV22" s="68"/>
-      <c r="CW22" s="68"/>
-      <c r="CX22" s="68"/>
-      <c r="CY22" s="68"/>
-      <c r="CZ22" s="68"/>
-      <c r="DA22" s="68"/>
-      <c r="DB22" s="68"/>
-      <c r="DC22" s="68"/>
-      <c r="DD22" s="68"/>
-      <c r="DE22" s="68"/>
+    <row r="22" spans="1:696" ht="4.5" customHeight="1">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="45"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="45"/>
+      <c r="BK22" s="45"/>
+      <c r="BL22" s="45"/>
+      <c r="BM22" s="45"/>
+      <c r="BN22" s="45"/>
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="45"/>
+      <c r="BQ22" s="45"/>
+      <c r="BR22" s="45"/>
+      <c r="BS22" s="45"/>
+      <c r="BT22" s="45"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="45"/>
+      <c r="BW22" s="45"/>
+      <c r="BX22" s="45"/>
+      <c r="BY22" s="45"/>
+      <c r="BZ22" s="45"/>
+      <c r="CA22" s="45"/>
+      <c r="CB22" s="45"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="45"/>
+      <c r="CE22" s="45"/>
+      <c r="CF22" s="45"/>
+      <c r="CG22" s="45"/>
+      <c r="CH22" s="45"/>
+      <c r="CI22" s="45"/>
+      <c r="CJ22" s="45"/>
+      <c r="CK22" s="45"/>
+      <c r="CL22" s="45"/>
+      <c r="CM22" s="45"/>
+      <c r="CN22" s="45"/>
+      <c r="CO22" s="45"/>
+      <c r="CP22" s="45"/>
+      <c r="CQ22" s="45"/>
+      <c r="CR22" s="45"/>
+      <c r="CS22" s="45"/>
+      <c r="CT22" s="45"/>
+      <c r="CU22" s="45"/>
+      <c r="CV22" s="45"/>
+      <c r="CW22" s="45"/>
+      <c r="CX22" s="45"/>
+      <c r="CY22" s="45"/>
+      <c r="CZ22" s="45"/>
+      <c r="DA22" s="45"/>
+      <c r="DB22" s="45"/>
+      <c r="DC22" s="45"/>
+      <c r="DD22" s="45"/>
+      <c r="DE22" s="45"/>
+      <c r="DF22" s="45"/>
       <c r="DG22" s="45"/>
       <c r="DH22" s="45"/>
       <c r="DI22" s="45"/>
@@ -16372,116 +16358,116 @@
       <c r="ZS22" s="45"/>
       <c r="ZT22" s="45"/>
     </row>
-    <row r="23" spans="1:696" ht="4.5" customHeight="1">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="45"/>
-      <c r="BM23" s="45"/>
-      <c r="BN23" s="45"/>
-      <c r="BO23" s="45"/>
-      <c r="BP23" s="45"/>
-      <c r="BQ23" s="45"/>
-      <c r="BR23" s="45"/>
-      <c r="BS23" s="45"/>
-      <c r="BT23" s="45"/>
-      <c r="BU23" s="45"/>
-      <c r="BV23" s="45"/>
-      <c r="BW23" s="45"/>
-      <c r="BX23" s="45"/>
-      <c r="BY23" s="45"/>
-      <c r="BZ23" s="45"/>
-      <c r="CA23" s="45"/>
-      <c r="CB23" s="45"/>
-      <c r="CC23" s="45"/>
-      <c r="CD23" s="45"/>
-      <c r="CE23" s="45"/>
-      <c r="CF23" s="45"/>
-      <c r="CG23" s="45"/>
-      <c r="CH23" s="45"/>
-      <c r="CI23" s="45"/>
-      <c r="CJ23" s="45"/>
-      <c r="CK23" s="45"/>
-      <c r="CL23" s="45"/>
-      <c r="CM23" s="45"/>
-      <c r="CN23" s="45"/>
-      <c r="CO23" s="45"/>
-      <c r="CP23" s="45"/>
-      <c r="CQ23" s="45"/>
-      <c r="CR23" s="45"/>
-      <c r="CS23" s="45"/>
-      <c r="CT23" s="45"/>
-      <c r="CU23" s="45"/>
-      <c r="CV23" s="45"/>
-      <c r="CW23" s="45"/>
-      <c r="CX23" s="45"/>
-      <c r="CY23" s="45"/>
-      <c r="CZ23" s="45"/>
-      <c r="DA23" s="45"/>
-      <c r="DB23" s="45"/>
-      <c r="DC23" s="45"/>
-      <c r="DD23" s="45"/>
-      <c r="DE23" s="45"/>
-      <c r="DF23" s="45"/>
+    <row r="23" spans="1:696" ht="14.25" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
+      <c r="BL23" s="41"/>
+      <c r="BM23" s="41"/>
+      <c r="BN23" s="41"/>
+      <c r="BO23" s="41"/>
+      <c r="BP23" s="41"/>
+      <c r="BQ23" s="41"/>
+      <c r="BR23" s="41"/>
+      <c r="BS23" s="41"/>
+      <c r="BT23" s="41"/>
+      <c r="BU23" s="41"/>
+      <c r="BV23" s="41"/>
+      <c r="BW23" s="41"/>
+      <c r="BX23" s="41"/>
+      <c r="BY23" s="41"/>
+      <c r="BZ23" s="41"/>
+      <c r="CA23" s="41"/>
+      <c r="CB23" s="41"/>
+      <c r="CC23" s="41"/>
+      <c r="CD23" s="41"/>
+      <c r="CE23" s="41"/>
+      <c r="CF23" s="41"/>
+      <c r="CG23" s="41"/>
+      <c r="CH23" s="41"/>
+      <c r="CI23" s="41"/>
+      <c r="CJ23" s="41"/>
+      <c r="CK23" s="41"/>
+      <c r="CL23" s="41"/>
+      <c r="CM23" s="41"/>
+      <c r="CN23" s="41"/>
+      <c r="CO23" s="41"/>
+      <c r="CP23" s="41"/>
+      <c r="CQ23" s="41"/>
+      <c r="CR23" s="41"/>
+      <c r="CS23" s="41"/>
+      <c r="CT23" s="41"/>
+      <c r="CU23" s="41"/>
+      <c r="CV23" s="41"/>
+      <c r="CW23" s="41"/>
+      <c r="CX23" s="41"/>
+      <c r="CY23" s="41"/>
+      <c r="CZ23" s="41"/>
+      <c r="DA23" s="41"/>
+      <c r="DB23" s="41"/>
+      <c r="DC23" s="41"/>
+      <c r="DD23" s="41"/>
+      <c r="DE23" s="41"/>
       <c r="DG23" s="45"/>
       <c r="DH23" s="45"/>
       <c r="DI23" s="45"/>
@@ -17050,8 +17036,7 @@
       <c r="YZ23" s="45"/>
       <c r="ZA23" s="45"/>
       <c r="ZB23" s="45"/>
-      <c r="ZC23" s="45"/>
-      <c r="ZD23" s="45"/>
+      <c r="ZC23" s="40"/>
       <c r="ZE23" s="45"/>
       <c r="ZF23" s="45"/>
       <c r="ZG23" s="45"/>
@@ -17069,116 +17054,116 @@
       <c r="ZS23" s="45"/>
       <c r="ZT23" s="45"/>
     </row>
-    <row r="24" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="41"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="41"/>
-      <c r="BK24" s="41"/>
-      <c r="BL24" s="41"/>
-      <c r="BM24" s="41"/>
-      <c r="BN24" s="41"/>
-      <c r="BO24" s="41"/>
-      <c r="BP24" s="41"/>
-      <c r="BQ24" s="41"/>
-      <c r="BR24" s="41"/>
-      <c r="BS24" s="41"/>
-      <c r="BT24" s="41"/>
-      <c r="BU24" s="41"/>
-      <c r="BV24" s="41"/>
-      <c r="BW24" s="41"/>
-      <c r="BX24" s="41"/>
-      <c r="BY24" s="41"/>
-      <c r="BZ24" s="41"/>
-      <c r="CA24" s="41"/>
-      <c r="CB24" s="41"/>
-      <c r="CC24" s="41"/>
-      <c r="CD24" s="41"/>
-      <c r="CE24" s="41"/>
-      <c r="CF24" s="41"/>
-      <c r="CG24" s="41"/>
-      <c r="CH24" s="41"/>
-      <c r="CI24" s="41"/>
-      <c r="CJ24" s="41"/>
-      <c r="CK24" s="41"/>
-      <c r="CL24" s="41"/>
-      <c r="CM24" s="41"/>
-      <c r="CN24" s="41"/>
-      <c r="CO24" s="41"/>
-      <c r="CP24" s="41"/>
-      <c r="CQ24" s="41"/>
-      <c r="CR24" s="41"/>
-      <c r="CS24" s="41"/>
-      <c r="CT24" s="41"/>
-      <c r="CU24" s="41"/>
-      <c r="CV24" s="41"/>
-      <c r="CW24" s="41"/>
-      <c r="CX24" s="41"/>
-      <c r="CY24" s="41"/>
-      <c r="CZ24" s="41"/>
-      <c r="DA24" s="41"/>
-      <c r="DB24" s="41"/>
-      <c r="DC24" s="41"/>
-      <c r="DD24" s="41"/>
-      <c r="DE24" s="41"/>
+    <row r="24" spans="1:696" ht="6" customHeight="1">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="45"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="45"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="45"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="45"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="45"/>
+      <c r="BL24" s="45"/>
+      <c r="BM24" s="45"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="45"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="45"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="45"/>
+      <c r="BX24" s="45"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="45"/>
+      <c r="CE24" s="45"/>
+      <c r="CF24" s="45"/>
+      <c r="CG24" s="45"/>
+      <c r="CH24" s="45"/>
+      <c r="CI24" s="45"/>
+      <c r="CJ24" s="45"/>
+      <c r="CK24" s="45"/>
+      <c r="CL24" s="45"/>
+      <c r="CM24" s="45"/>
+      <c r="CN24" s="45"/>
+      <c r="CO24" s="45"/>
+      <c r="CP24" s="45"/>
+      <c r="CQ24" s="45"/>
+      <c r="CR24" s="45"/>
+      <c r="CS24" s="45"/>
+      <c r="CT24" s="45"/>
+      <c r="CU24" s="45"/>
+      <c r="CV24" s="45"/>
+      <c r="CW24" s="45"/>
+      <c r="CX24" s="45"/>
+      <c r="CY24" s="45"/>
+      <c r="CZ24" s="45"/>
+      <c r="DA24" s="45"/>
+      <c r="DB24" s="45"/>
+      <c r="DC24" s="45"/>
+      <c r="DD24" s="45"/>
+      <c r="DE24" s="45"/>
+      <c r="DF24" s="45"/>
       <c r="DG24" s="45"/>
       <c r="DH24" s="45"/>
       <c r="DI24" s="45"/>
@@ -17747,7 +17732,8 @@
       <c r="YZ24" s="45"/>
       <c r="ZA24" s="45"/>
       <c r="ZB24" s="45"/>
-      <c r="ZC24" s="40"/>
+      <c r="ZC24" s="45"/>
+      <c r="ZD24" s="45"/>
       <c r="ZE24" s="45"/>
       <c r="ZF24" s="45"/>
       <c r="ZG24" s="45"/>
@@ -17765,101 +17751,103 @@
       <c r="ZS24" s="45"/>
       <c r="ZT24" s="45"/>
     </row>
-    <row r="25" spans="1:696" ht="6" customHeight="1">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
-      <c r="BL25" s="45"/>
-      <c r="BM25" s="45"/>
-      <c r="BN25" s="45"/>
-      <c r="BO25" s="45"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="45"/>
-      <c r="BS25" s="45"/>
-      <c r="BT25" s="45"/>
-      <c r="BU25" s="45"/>
-      <c r="BV25" s="45"/>
-      <c r="BW25" s="45"/>
-      <c r="BX25" s="45"/>
-      <c r="BY25" s="45"/>
-      <c r="BZ25" s="45"/>
-      <c r="CA25" s="45"/>
-      <c r="CB25" s="45"/>
-      <c r="CC25" s="45"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="45"/>
-      <c r="CF25" s="45"/>
-      <c r="CG25" s="45"/>
-      <c r="CH25" s="45"/>
-      <c r="CI25" s="45"/>
-      <c r="CJ25" s="45"/>
-      <c r="CK25" s="45"/>
-      <c r="CL25" s="45"/>
-      <c r="CM25" s="45"/>
-      <c r="CN25" s="45"/>
-      <c r="CO25" s="45"/>
-      <c r="CP25" s="45"/>
-      <c r="CQ25" s="45"/>
+    <row r="25" spans="1:696" ht="14.25" customHeight="1">
+      <c r="A25" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AI25" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="69"/>
+      <c r="BE25" s="69"/>
+      <c r="BF25" s="69"/>
+      <c r="BG25" s="69"/>
+      <c r="BH25" s="69"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="69"/>
+      <c r="BL25" s="69"/>
+      <c r="BM25" s="69"/>
+      <c r="BO25" s="46"/>
+      <c r="BP25" s="46"/>
+      <c r="BQ25" s="46"/>
+      <c r="BR25" s="46"/>
+      <c r="BS25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="46"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="BY25" s="46"/>
+      <c r="BZ25" s="46"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="46"/>
+      <c r="CC25" s="46"/>
+      <c r="CD25" s="46"/>
+      <c r="CE25" s="46"/>
+      <c r="CF25" s="46"/>
+      <c r="CG25" s="46"/>
+      <c r="CH25" s="46"/>
+      <c r="CI25" s="46"/>
+      <c r="CJ25" s="46"/>
+      <c r="CK25" s="46"/>
+      <c r="CL25" s="46"/>
+      <c r="CM25" s="46"/>
+      <c r="CN25" s="46"/>
+      <c r="CO25" s="46"/>
+      <c r="CP25" s="46"/>
       <c r="CR25" s="45"/>
       <c r="CS25" s="45"/>
       <c r="CT25" s="45"/>
@@ -18460,115 +18448,116 @@
       <c r="ZQ25" s="45"/>
       <c r="ZR25" s="45"/>
       <c r="ZS25" s="45"/>
-      <c r="ZT25" s="45"/>
+      <c r="ZT25" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:696" ht="14.25" customHeight="1">
-      <c r="A26" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AI26" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="69"/>
-      <c r="BH26" s="69"/>
-      <c r="BI26" s="69"/>
-      <c r="BJ26" s="69"/>
-      <c r="BK26" s="69"/>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BO26" s="46"/>
-      <c r="BP26" s="46"/>
-      <c r="BQ26" s="46"/>
-      <c r="BR26" s="46"/>
-      <c r="BS26" s="46"/>
-      <c r="BT26" s="46"/>
-      <c r="BU26" s="46"/>
-      <c r="BV26" s="46"/>
-      <c r="BW26" s="46"/>
-      <c r="BX26" s="46"/>
-      <c r="BY26" s="46"/>
-      <c r="BZ26" s="46"/>
-      <c r="CA26" s="46"/>
-      <c r="CB26" s="46"/>
-      <c r="CC26" s="46"/>
-      <c r="CD26" s="46"/>
-      <c r="CE26" s="46"/>
-      <c r="CF26" s="46"/>
-      <c r="CG26" s="46"/>
-      <c r="CH26" s="46"/>
-      <c r="CI26" s="46"/>
-      <c r="CJ26" s="46"/>
-      <c r="CK26" s="46"/>
-      <c r="CL26" s="46"/>
-      <c r="CM26" s="46"/>
-      <c r="CN26" s="46"/>
-      <c r="CO26" s="46"/>
-      <c r="CP26" s="46"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="45"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="45"/>
+      <c r="AY26" s="45"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="45"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="45"/>
+      <c r="BF26" s="45"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="45"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="45"/>
+      <c r="BL26" s="45"/>
+      <c r="BM26" s="45"/>
+      <c r="BN26" s="45"/>
+      <c r="BO26" s="45"/>
+      <c r="BP26" s="45"/>
+      <c r="BQ26" s="45"/>
+      <c r="BR26" s="45"/>
+      <c r="BS26" s="45"/>
+      <c r="BT26" s="45"/>
+      <c r="BU26" s="45"/>
+      <c r="BV26" s="45"/>
+      <c r="BW26" s="45"/>
+      <c r="BX26" s="45"/>
+      <c r="BY26" s="45"/>
+      <c r="BZ26" s="45"/>
+      <c r="CA26" s="45"/>
+      <c r="CB26" s="45"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="45"/>
+      <c r="CE26" s="45"/>
+      <c r="CF26" s="45"/>
+      <c r="CG26" s="45"/>
+      <c r="CH26" s="45"/>
+      <c r="CI26" s="45"/>
+      <c r="CJ26" s="45"/>
+      <c r="CK26" s="45"/>
+      <c r="CL26" s="45"/>
+      <c r="CM26" s="45"/>
+      <c r="CN26" s="45"/>
+      <c r="CO26" s="45"/>
+      <c r="CP26" s="45"/>
+      <c r="CQ26" s="45"/>
       <c r="CR26" s="45"/>
       <c r="CS26" s="45"/>
       <c r="CT26" s="45"/>
-      <c r="CU26" s="45"/>
-      <c r="CV26" s="45"/>
-      <c r="CW26" s="45"/>
-      <c r="CX26" s="45"/>
-      <c r="CY26" s="45"/>
-      <c r="CZ26" s="45"/>
-      <c r="DA26" s="45"/>
+      <c r="CU26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="CV26" s="4"/>
+      <c r="CW26" s="4"/>
+      <c r="CX26" s="4"/>
+      <c r="CY26" s="4"/>
+      <c r="CZ26" s="4"/>
       <c r="DB26" s="45"/>
       <c r="DC26" s="45"/>
       <c r="DD26" s="45"/>
@@ -19159,116 +19148,112 @@
       <c r="ZQ26" s="45"/>
       <c r="ZR26" s="45"/>
       <c r="ZS26" s="45"/>
-      <c r="ZT26" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="ZT26" s="45"/>
     </row>
     <row r="27" spans="1:696" ht="14.25" customHeight="1">
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="45"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="45"/>
-      <c r="BL27" s="45"/>
-      <c r="BM27" s="45"/>
-      <c r="BN27" s="45"/>
-      <c r="BO27" s="45"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="45"/>
-      <c r="BS27" s="45"/>
-      <c r="BT27" s="45"/>
-      <c r="BU27" s="45"/>
-      <c r="BV27" s="45"/>
-      <c r="BW27" s="45"/>
-      <c r="BX27" s="45"/>
-      <c r="BY27" s="45"/>
-      <c r="BZ27" s="45"/>
-      <c r="CA27" s="45"/>
-      <c r="CB27" s="45"/>
-      <c r="CC27" s="45"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="45"/>
-      <c r="CF27" s="45"/>
-      <c r="CG27" s="45"/>
-      <c r="CH27" s="45"/>
-      <c r="CI27" s="45"/>
-      <c r="CJ27" s="45"/>
-      <c r="CK27" s="45"/>
-      <c r="CL27" s="45"/>
-      <c r="CM27" s="45"/>
-      <c r="CN27" s="45"/>
-      <c r="CO27" s="45"/>
-      <c r="CP27" s="45"/>
-      <c r="CQ27" s="45"/>
+      <c r="D27" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
+      <c r="BF27" s="69"/>
+      <c r="BG27" s="69"/>
+      <c r="BH27" s="69"/>
+      <c r="BI27" s="69"/>
+      <c r="BJ27" s="69"/>
+      <c r="BK27" s="69"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BO27" s="46"/>
+      <c r="BP27" s="46"/>
+      <c r="BQ27" s="46"/>
+      <c r="BR27" s="46"/>
+      <c r="BS27" s="46"/>
+      <c r="BT27" s="46"/>
+      <c r="BU27" s="46"/>
+      <c r="BV27" s="46"/>
+      <c r="BW27" s="46"/>
+      <c r="BX27" s="46"/>
+      <c r="BY27" s="46"/>
+      <c r="BZ27" s="46"/>
+      <c r="CA27" s="46"/>
+      <c r="CB27" s="46"/>
+      <c r="CC27" s="46"/>
+      <c r="CD27" s="46"/>
+      <c r="CE27" s="46"/>
+      <c r="CF27" s="46"/>
+      <c r="CG27" s="46"/>
+      <c r="CH27" s="46"/>
+      <c r="CI27" s="46"/>
+      <c r="CJ27" s="46"/>
+      <c r="CK27" s="46"/>
+      <c r="CL27" s="46"/>
+      <c r="CM27" s="46"/>
+      <c r="CN27" s="46"/>
+      <c r="CO27" s="46"/>
+      <c r="CP27" s="46"/>
       <c r="CR27" s="45"/>
       <c r="CS27" s="45"/>
       <c r="CT27" s="45"/>
-      <c r="CU27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CV27" s="4"/>
-      <c r="CW27" s="4"/>
-      <c r="CX27" s="4"/>
-      <c r="CY27" s="4"/>
-      <c r="CZ27" s="4"/>
+      <c r="CU27" s="45"/>
+      <c r="CV27" s="45"/>
+      <c r="CW27" s="45"/>
+      <c r="CX27" s="45"/>
+      <c r="CY27" s="45"/>
+      <c r="CZ27" s="45"/>
+      <c r="DA27" s="45"/>
       <c r="DB27" s="45"/>
       <c r="DC27" s="45"/>
       <c r="DD27" s="45"/>
@@ -19861,100 +19846,101 @@
       <c r="ZS27" s="45"/>
       <c r="ZT27" s="45"/>
     </row>
-    <row r="28" spans="1:696" ht="14.25" customHeight="1">
+    <row r="28" spans="1:696" ht="11.25" hidden="1">
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="69"/>
-      <c r="BH28" s="69"/>
-      <c r="BI28" s="69"/>
-      <c r="BJ28" s="69"/>
-      <c r="BK28" s="69"/>
-      <c r="BL28" s="69"/>
-      <c r="BM28" s="69"/>
-      <c r="BO28" s="46"/>
-      <c r="BP28" s="46"/>
-      <c r="BQ28" s="46"/>
-      <c r="BR28" s="46"/>
-      <c r="BS28" s="46"/>
-      <c r="BT28" s="46"/>
-      <c r="BU28" s="46"/>
-      <c r="BV28" s="46"/>
-      <c r="BW28" s="46"/>
-      <c r="BX28" s="46"/>
-      <c r="BY28" s="46"/>
-      <c r="BZ28" s="46"/>
-      <c r="CA28" s="46"/>
-      <c r="CB28" s="46"/>
-      <c r="CC28" s="46"/>
-      <c r="CD28" s="46"/>
-      <c r="CE28" s="46"/>
-      <c r="CF28" s="46"/>
-      <c r="CG28" s="46"/>
-      <c r="CH28" s="46"/>
-      <c r="CI28" s="46"/>
-      <c r="CJ28" s="46"/>
-      <c r="CK28" s="46"/>
-      <c r="CL28" s="46"/>
-      <c r="CM28" s="46"/>
-      <c r="CN28" s="46"/>
-      <c r="CO28" s="46"/>
-      <c r="CP28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="45"/>
+      <c r="BE28" s="45"/>
+      <c r="BF28" s="45"/>
+      <c r="BG28" s="45"/>
+      <c r="BH28" s="45"/>
+      <c r="BI28" s="45"/>
+      <c r="BJ28" s="45"/>
+      <c r="BK28" s="45"/>
+      <c r="BL28" s="45"/>
+      <c r="BM28" s="45"/>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="45"/>
+      <c r="BP28" s="45"/>
+      <c r="BQ28" s="45"/>
+      <c r="BR28" s="45"/>
+      <c r="BS28" s="45"/>
+      <c r="BT28" s="45"/>
+      <c r="BU28" s="45"/>
+      <c r="BV28" s="45"/>
+      <c r="BW28" s="45"/>
+      <c r="BX28" s="45"/>
+      <c r="BY28" s="45"/>
+      <c r="BZ28" s="45"/>
+      <c r="CA28" s="45"/>
+      <c r="CB28" s="45"/>
+      <c r="CC28" s="45"/>
+      <c r="CD28" s="45"/>
+      <c r="CE28" s="45"/>
+      <c r="CF28" s="45"/>
+      <c r="CG28" s="45"/>
+      <c r="CH28" s="45"/>
+      <c r="CI28" s="45"/>
+      <c r="CJ28" s="45"/>
+      <c r="CK28" s="45"/>
+      <c r="CL28" s="45"/>
+      <c r="CM28" s="45"/>
+      <c r="CN28" s="45"/>
+      <c r="CO28" s="45"/>
+      <c r="CP28" s="45"/>
+      <c r="CQ28" s="45"/>
       <c r="CR28" s="45"/>
       <c r="CS28" s="45"/>
       <c r="CT28" s="45"/>
@@ -19969,7 +19955,6 @@
       <c r="DC28" s="45"/>
       <c r="DD28" s="45"/>
       <c r="DE28" s="45"/>
-      <c r="DF28" s="45"/>
       <c r="DG28" s="45"/>
       <c r="DH28" s="45"/>
       <c r="DI28" s="45"/>
@@ -20319,10 +20304,6 @@
       <c r="QO28" s="45"/>
       <c r="QP28" s="45"/>
       <c r="QQ28" s="45"/>
-      <c r="QR28" s="45"/>
-      <c r="QS28" s="45"/>
-      <c r="QT28" s="45"/>
-      <c r="QU28" s="45"/>
       <c r="QV28" s="45"/>
       <c r="QW28" s="45"/>
       <c r="QX28" s="45"/>
@@ -20536,18 +20517,12 @@
       <c r="YX28" s="45"/>
       <c r="YY28" s="45"/>
       <c r="YZ28" s="45"/>
-      <c r="ZA28" s="45"/>
       <c r="ZB28" s="45"/>
       <c r="ZC28" s="45"/>
-      <c r="ZD28" s="45"/>
       <c r="ZE28" s="45"/>
-      <c r="ZF28" s="45"/>
       <c r="ZG28" s="45"/>
-      <c r="ZH28" s="45"/>
       <c r="ZI28" s="45"/>
-      <c r="ZJ28" s="45"/>
       <c r="ZK28" s="45"/>
-      <c r="ZL28" s="45"/>
       <c r="ZM28" s="45"/>
       <c r="ZN28" s="45"/>
       <c r="ZO28" s="45"/>
@@ -20555,695 +20530,9 @@
       <c r="ZQ28" s="45"/>
       <c r="ZR28" s="45"/>
       <c r="ZS28" s="45"/>
-      <c r="ZT28" s="45"/>
-    </row>
-    <row r="29" spans="1:696" ht="11.25" hidden="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
-      <c r="BD29" s="45"/>
-      <c r="BE29" s="45"/>
-      <c r="BF29" s="45"/>
-      <c r="BG29" s="45"/>
-      <c r="BH29" s="45"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="45"/>
-      <c r="BK29" s="45"/>
-      <c r="BL29" s="45"/>
-      <c r="BM29" s="45"/>
-      <c r="BN29" s="45"/>
-      <c r="BO29" s="45"/>
-      <c r="BP29" s="45"/>
-      <c r="BQ29" s="45"/>
-      <c r="BR29" s="45"/>
-      <c r="BS29" s="45"/>
-      <c r="BT29" s="45"/>
-      <c r="BU29" s="45"/>
-      <c r="BV29" s="45"/>
-      <c r="BW29" s="45"/>
-      <c r="BX29" s="45"/>
-      <c r="BY29" s="45"/>
-      <c r="BZ29" s="45"/>
-      <c r="CA29" s="45"/>
-      <c r="CB29" s="45"/>
-      <c r="CC29" s="45"/>
-      <c r="CD29" s="45"/>
-      <c r="CE29" s="45"/>
-      <c r="CF29" s="45"/>
-      <c r="CG29" s="45"/>
-      <c r="CH29" s="45"/>
-      <c r="CI29" s="45"/>
-      <c r="CJ29" s="45"/>
-      <c r="CK29" s="45"/>
-      <c r="CL29" s="45"/>
-      <c r="CM29" s="45"/>
-      <c r="CN29" s="45"/>
-      <c r="CO29" s="45"/>
-      <c r="CP29" s="45"/>
-      <c r="CQ29" s="45"/>
-      <c r="CR29" s="45"/>
-      <c r="CS29" s="45"/>
-      <c r="CT29" s="45"/>
-      <c r="CU29" s="45"/>
-      <c r="CV29" s="45"/>
-      <c r="CW29" s="45"/>
-      <c r="CX29" s="45"/>
-      <c r="CY29" s="45"/>
-      <c r="CZ29" s="45"/>
-      <c r="DA29" s="45"/>
-      <c r="DB29" s="45"/>
-      <c r="DC29" s="45"/>
-      <c r="DD29" s="45"/>
-      <c r="DE29" s="45"/>
-      <c r="DG29" s="45"/>
-      <c r="DH29" s="45"/>
-      <c r="DI29" s="45"/>
-      <c r="DJ29" s="45"/>
-      <c r="DK29" s="45"/>
-      <c r="DL29" s="45"/>
-      <c r="DM29" s="45"/>
-      <c r="DN29" s="45"/>
-      <c r="DO29" s="45"/>
-      <c r="DP29" s="45"/>
-      <c r="DQ29" s="45"/>
-      <c r="DR29" s="45"/>
-      <c r="DS29" s="45"/>
-      <c r="DT29" s="45"/>
-      <c r="DU29" s="45"/>
-      <c r="DV29" s="45"/>
-      <c r="DW29" s="45"/>
-      <c r="DX29" s="45"/>
-      <c r="DY29" s="45"/>
-      <c r="DZ29" s="45"/>
-      <c r="EA29" s="45"/>
-      <c r="EB29" s="45"/>
-      <c r="EC29" s="45"/>
-      <c r="ED29" s="45"/>
-      <c r="EE29" s="45"/>
-      <c r="EF29" s="45"/>
-      <c r="EG29" s="45"/>
-      <c r="EH29" s="45"/>
-      <c r="EI29" s="45"/>
-      <c r="EJ29" s="45"/>
-      <c r="EK29" s="45"/>
-      <c r="EL29" s="45"/>
-      <c r="EM29" s="45"/>
-      <c r="EN29" s="45"/>
-      <c r="EO29" s="45"/>
-      <c r="EP29" s="45"/>
-      <c r="EQ29" s="45"/>
-      <c r="ER29" s="45"/>
-      <c r="ES29" s="45"/>
-      <c r="ET29" s="45"/>
-      <c r="EU29" s="45"/>
-      <c r="EV29" s="45"/>
-      <c r="EW29" s="45"/>
-      <c r="EX29" s="45"/>
-      <c r="EY29" s="45"/>
-      <c r="EZ29" s="45"/>
-      <c r="FA29" s="45"/>
-      <c r="FB29" s="45"/>
-      <c r="FC29" s="45"/>
-      <c r="FD29" s="45"/>
-      <c r="FE29" s="45"/>
-      <c r="FF29" s="45"/>
-      <c r="FG29" s="45"/>
-      <c r="FH29" s="45"/>
-      <c r="FI29" s="45"/>
-      <c r="FJ29" s="45"/>
-      <c r="FK29" s="45"/>
-      <c r="FL29" s="45"/>
-      <c r="FM29" s="45"/>
-      <c r="FN29" s="45"/>
-      <c r="FO29" s="45"/>
-      <c r="FP29" s="45"/>
-      <c r="FQ29" s="45"/>
-      <c r="FR29" s="45"/>
-      <c r="FS29" s="45"/>
-      <c r="FT29" s="45"/>
-      <c r="FU29" s="45"/>
-      <c r="FV29" s="45"/>
-      <c r="FW29" s="45"/>
-      <c r="FX29" s="45"/>
-      <c r="FY29" s="45"/>
-      <c r="FZ29" s="45"/>
-      <c r="GA29" s="45"/>
-      <c r="GB29" s="45"/>
-      <c r="GC29" s="45"/>
-      <c r="GD29" s="45"/>
-      <c r="GE29" s="45"/>
-      <c r="GF29" s="45"/>
-      <c r="GG29" s="45"/>
-      <c r="GH29" s="45"/>
-      <c r="GI29" s="45"/>
-      <c r="GJ29" s="45"/>
-      <c r="GK29" s="45"/>
-      <c r="GL29" s="45"/>
-      <c r="GM29" s="45"/>
-      <c r="GN29" s="45"/>
-      <c r="GO29" s="45"/>
-      <c r="GP29" s="45"/>
-      <c r="GQ29" s="45"/>
-      <c r="GR29" s="45"/>
-      <c r="GS29" s="45"/>
-      <c r="GT29" s="45"/>
-      <c r="GU29" s="45"/>
-      <c r="GV29" s="45"/>
-      <c r="GW29" s="45"/>
-      <c r="GX29" s="45"/>
-      <c r="GY29" s="45"/>
-      <c r="GZ29" s="45"/>
-      <c r="HA29" s="45"/>
-      <c r="HB29" s="45"/>
-      <c r="HC29" s="45"/>
-      <c r="HD29" s="45"/>
-      <c r="HE29" s="45"/>
-      <c r="HF29" s="45"/>
-      <c r="HG29" s="45"/>
-      <c r="HH29" s="45"/>
-      <c r="HI29" s="45"/>
-      <c r="HJ29" s="45"/>
-      <c r="HK29" s="45"/>
-      <c r="HL29" s="45"/>
-      <c r="HM29" s="45"/>
-      <c r="HN29" s="45"/>
-      <c r="HO29" s="45"/>
-      <c r="HP29" s="45"/>
-      <c r="HQ29" s="45"/>
-      <c r="HR29" s="45"/>
-      <c r="HS29" s="45"/>
-      <c r="HT29" s="45"/>
-      <c r="HU29" s="45"/>
-      <c r="HV29" s="45"/>
-      <c r="HW29" s="45"/>
-      <c r="HX29" s="45"/>
-      <c r="HY29" s="45"/>
-      <c r="HZ29" s="45"/>
-      <c r="IA29" s="45"/>
-      <c r="IB29" s="45"/>
-      <c r="IC29" s="45"/>
-      <c r="ID29" s="45"/>
-      <c r="IE29" s="45"/>
-      <c r="IF29" s="45"/>
-      <c r="IG29" s="45"/>
-      <c r="IH29" s="45"/>
-      <c r="II29" s="45"/>
-      <c r="IJ29" s="45"/>
-      <c r="IK29" s="45"/>
-      <c r="IL29" s="45"/>
-      <c r="IM29" s="45"/>
-      <c r="IN29" s="45"/>
-      <c r="IO29" s="45"/>
-      <c r="IP29" s="45"/>
-      <c r="IQ29" s="45"/>
-      <c r="IR29" s="45"/>
-      <c r="IS29" s="45"/>
-      <c r="IT29" s="45"/>
-      <c r="IU29" s="45"/>
-      <c r="IV29" s="45"/>
-      <c r="IW29" s="45"/>
-      <c r="IX29" s="45"/>
-      <c r="IY29" s="45"/>
-      <c r="IZ29" s="45"/>
-      <c r="JA29" s="45"/>
-      <c r="JB29" s="45"/>
-      <c r="JC29" s="45"/>
-      <c r="JD29" s="45"/>
-      <c r="JE29" s="45"/>
-      <c r="JF29" s="45"/>
-      <c r="JG29" s="45"/>
-      <c r="JH29" s="45"/>
-      <c r="JI29" s="45"/>
-      <c r="JJ29" s="45"/>
-      <c r="JK29" s="45"/>
-      <c r="JL29" s="45"/>
-      <c r="JM29" s="45"/>
-      <c r="JN29" s="45"/>
-      <c r="JO29" s="45"/>
-      <c r="JP29" s="45"/>
-      <c r="JQ29" s="45"/>
-      <c r="JR29" s="45"/>
-      <c r="JS29" s="45"/>
-      <c r="JT29" s="45"/>
-      <c r="JU29" s="45"/>
-      <c r="JV29" s="45"/>
-      <c r="JW29" s="45"/>
-      <c r="JX29" s="45"/>
-      <c r="JY29" s="45"/>
-      <c r="JZ29" s="45"/>
-      <c r="KA29" s="45"/>
-      <c r="KB29" s="45"/>
-      <c r="KC29" s="45"/>
-      <c r="KD29" s="45"/>
-      <c r="KE29" s="45"/>
-      <c r="KF29" s="45"/>
-      <c r="KG29" s="45"/>
-      <c r="KH29" s="45"/>
-      <c r="KI29" s="45"/>
-      <c r="KJ29" s="45"/>
-      <c r="KK29" s="45"/>
-      <c r="KL29" s="45"/>
-      <c r="KM29" s="45"/>
-      <c r="KN29" s="45"/>
-      <c r="KO29" s="45"/>
-      <c r="KP29" s="45"/>
-      <c r="KQ29" s="45"/>
-      <c r="KR29" s="45"/>
-      <c r="KS29" s="45"/>
-      <c r="KT29" s="45"/>
-      <c r="KU29" s="45"/>
-      <c r="KV29" s="45"/>
-      <c r="KW29" s="45"/>
-      <c r="KX29" s="45"/>
-      <c r="KY29" s="45"/>
-      <c r="KZ29" s="45"/>
-      <c r="LA29" s="45"/>
-      <c r="LB29" s="45"/>
-      <c r="LC29" s="45"/>
-      <c r="LD29" s="45"/>
-      <c r="LE29" s="45"/>
-      <c r="LF29" s="45"/>
-      <c r="LG29" s="45"/>
-      <c r="LH29" s="45"/>
-      <c r="LI29" s="45"/>
-      <c r="LJ29" s="45"/>
-      <c r="LK29" s="45"/>
-      <c r="LL29" s="45"/>
-      <c r="LM29" s="45"/>
-      <c r="LN29" s="45"/>
-      <c r="LO29" s="45"/>
-      <c r="LP29" s="45"/>
-      <c r="LQ29" s="45"/>
-      <c r="LR29" s="45"/>
-      <c r="LS29" s="45"/>
-      <c r="LT29" s="45"/>
-      <c r="LU29" s="45"/>
-      <c r="LV29" s="45"/>
-      <c r="LW29" s="45"/>
-      <c r="LX29" s="45"/>
-      <c r="LY29" s="45"/>
-      <c r="LZ29" s="45"/>
-      <c r="MA29" s="45"/>
-      <c r="MB29" s="45"/>
-      <c r="MC29" s="45"/>
-      <c r="MD29" s="45"/>
-      <c r="ME29" s="45"/>
-      <c r="MF29" s="45"/>
-      <c r="MG29" s="45"/>
-      <c r="MH29" s="45"/>
-      <c r="MI29" s="45"/>
-      <c r="MJ29" s="45"/>
-      <c r="MK29" s="45"/>
-      <c r="ML29" s="45"/>
-      <c r="MM29" s="45"/>
-      <c r="MN29" s="45"/>
-      <c r="MO29" s="45"/>
-      <c r="MP29" s="45"/>
-      <c r="MQ29" s="45"/>
-      <c r="MR29" s="45"/>
-      <c r="MS29" s="45"/>
-      <c r="MT29" s="45"/>
-      <c r="MU29" s="45"/>
-      <c r="MV29" s="45"/>
-      <c r="MW29" s="45"/>
-      <c r="MX29" s="45"/>
-      <c r="MY29" s="45"/>
-      <c r="MZ29" s="45"/>
-      <c r="NA29" s="45"/>
-      <c r="NB29" s="45"/>
-      <c r="NC29" s="45"/>
-      <c r="ND29" s="45"/>
-      <c r="NE29" s="45"/>
-      <c r="NF29" s="45"/>
-      <c r="NG29" s="45"/>
-      <c r="NH29" s="45"/>
-      <c r="NI29" s="45"/>
-      <c r="NJ29" s="45"/>
-      <c r="NK29" s="45"/>
-      <c r="NL29" s="45"/>
-      <c r="NM29" s="45"/>
-      <c r="NN29" s="45"/>
-      <c r="NO29" s="45"/>
-      <c r="NP29" s="45"/>
-      <c r="NQ29" s="45"/>
-      <c r="NR29" s="45"/>
-      <c r="NS29" s="45"/>
-      <c r="NT29" s="45"/>
-      <c r="NU29" s="45"/>
-      <c r="NV29" s="45"/>
-      <c r="NW29" s="45"/>
-      <c r="NX29" s="45"/>
-      <c r="NY29" s="45"/>
-      <c r="NZ29" s="45"/>
-      <c r="OA29" s="45"/>
-      <c r="OB29" s="45"/>
-      <c r="OC29" s="45"/>
-      <c r="OD29" s="45"/>
-      <c r="OE29" s="45"/>
-      <c r="OF29" s="45"/>
-      <c r="OG29" s="45"/>
-      <c r="OH29" s="45"/>
-      <c r="OI29" s="45"/>
-      <c r="OJ29" s="45"/>
-      <c r="OK29" s="45"/>
-      <c r="OL29" s="45"/>
-      <c r="OM29" s="45"/>
-      <c r="ON29" s="45"/>
-      <c r="OO29" s="45"/>
-      <c r="OP29" s="45"/>
-      <c r="OQ29" s="45"/>
-      <c r="OR29" s="45"/>
-      <c r="OS29" s="45"/>
-      <c r="OT29" s="45"/>
-      <c r="OU29" s="45"/>
-      <c r="OV29" s="45"/>
-      <c r="OW29" s="45"/>
-      <c r="OX29" s="45"/>
-      <c r="OY29" s="45"/>
-      <c r="OZ29" s="45"/>
-      <c r="PA29" s="45"/>
-      <c r="PB29" s="45"/>
-      <c r="PC29" s="45"/>
-      <c r="PD29" s="45"/>
-      <c r="PE29" s="45"/>
-      <c r="PF29" s="45"/>
-      <c r="PG29" s="45"/>
-      <c r="PH29" s="45"/>
-      <c r="PI29" s="45"/>
-      <c r="PJ29" s="45"/>
-      <c r="PK29" s="45"/>
-      <c r="PL29" s="45"/>
-      <c r="PM29" s="45"/>
-      <c r="PN29" s="45"/>
-      <c r="PO29" s="45"/>
-      <c r="PP29" s="45"/>
-      <c r="PQ29" s="45"/>
-      <c r="PR29" s="45"/>
-      <c r="PS29" s="45"/>
-      <c r="PT29" s="45"/>
-      <c r="PU29" s="45"/>
-      <c r="PV29" s="45"/>
-      <c r="PW29" s="45"/>
-      <c r="PX29" s="45"/>
-      <c r="PY29" s="45"/>
-      <c r="PZ29" s="45"/>
-      <c r="QA29" s="45"/>
-      <c r="QB29" s="45"/>
-      <c r="QC29" s="45"/>
-      <c r="QD29" s="45"/>
-      <c r="QE29" s="45"/>
-      <c r="QF29" s="45"/>
-      <c r="QG29" s="45"/>
-      <c r="QH29" s="45"/>
-      <c r="QI29" s="45"/>
-      <c r="QJ29" s="45"/>
-      <c r="QK29" s="45"/>
-      <c r="QL29" s="45"/>
-      <c r="QM29" s="45"/>
-      <c r="QN29" s="45"/>
-      <c r="QO29" s="45"/>
-      <c r="QP29" s="45"/>
-      <c r="QQ29" s="45"/>
-      <c r="QV29" s="45"/>
-      <c r="QW29" s="45"/>
-      <c r="QX29" s="45"/>
-      <c r="QY29" s="45"/>
-      <c r="QZ29" s="45"/>
-      <c r="RA29" s="45"/>
-      <c r="RB29" s="45"/>
-      <c r="RC29" s="45"/>
-      <c r="RD29" s="45"/>
-      <c r="RE29" s="45"/>
-      <c r="RF29" s="45"/>
-      <c r="RG29" s="45"/>
-      <c r="RH29" s="45"/>
-      <c r="RI29" s="45"/>
-      <c r="RJ29" s="45"/>
-      <c r="RK29" s="45"/>
-      <c r="RL29" s="45"/>
-      <c r="RM29" s="45"/>
-      <c r="RN29" s="45"/>
-      <c r="RO29" s="45"/>
-      <c r="RP29" s="45"/>
-      <c r="RQ29" s="45"/>
-      <c r="RR29" s="45"/>
-      <c r="RS29" s="45"/>
-      <c r="RT29" s="45"/>
-      <c r="RU29" s="45"/>
-      <c r="RV29" s="45"/>
-      <c r="RW29" s="45"/>
-      <c r="RX29" s="45"/>
-      <c r="RY29" s="45"/>
-      <c r="RZ29" s="45"/>
-      <c r="SA29" s="45"/>
-      <c r="SB29" s="45"/>
-      <c r="SC29" s="45"/>
-      <c r="SD29" s="45"/>
-      <c r="SE29" s="45"/>
-      <c r="SF29" s="45"/>
-      <c r="SG29" s="45"/>
-      <c r="SH29" s="45"/>
-      <c r="SI29" s="45"/>
-      <c r="SJ29" s="45"/>
-      <c r="SK29" s="45"/>
-      <c r="SL29" s="45"/>
-      <c r="SM29" s="45"/>
-      <c r="SN29" s="45"/>
-      <c r="SO29" s="45"/>
-      <c r="SP29" s="45"/>
-      <c r="SQ29" s="45"/>
-      <c r="SR29" s="45"/>
-      <c r="SS29" s="45"/>
-      <c r="ST29" s="45"/>
-      <c r="SU29" s="45"/>
-      <c r="SV29" s="45"/>
-      <c r="SW29" s="45"/>
-      <c r="SX29" s="45"/>
-      <c r="SY29" s="45"/>
-      <c r="SZ29" s="45"/>
-      <c r="TA29" s="45"/>
-      <c r="TB29" s="45"/>
-      <c r="TC29" s="45"/>
-      <c r="TD29" s="45"/>
-      <c r="TE29" s="45"/>
-      <c r="TF29" s="45"/>
-      <c r="TG29" s="45"/>
-      <c r="TH29" s="45"/>
-      <c r="TI29" s="45"/>
-      <c r="TJ29" s="45"/>
-      <c r="TK29" s="45"/>
-      <c r="TL29" s="45"/>
-      <c r="TM29" s="45"/>
-      <c r="TN29" s="45"/>
-      <c r="TO29" s="45"/>
-      <c r="TP29" s="45"/>
-      <c r="TQ29" s="45"/>
-      <c r="TR29" s="45"/>
-      <c r="TS29" s="45"/>
-      <c r="TT29" s="45"/>
-      <c r="TU29" s="45"/>
-      <c r="TV29" s="45"/>
-      <c r="TW29" s="45"/>
-      <c r="TX29" s="45"/>
-      <c r="TY29" s="45"/>
-      <c r="TZ29" s="45"/>
-      <c r="UA29" s="45"/>
-      <c r="UB29" s="45"/>
-      <c r="UC29" s="45"/>
-      <c r="UD29" s="45"/>
-      <c r="UE29" s="45"/>
-      <c r="UF29" s="45"/>
-      <c r="UG29" s="45"/>
-      <c r="UH29" s="45"/>
-      <c r="UI29" s="45"/>
-      <c r="UJ29" s="45"/>
-      <c r="UK29" s="45"/>
-      <c r="UL29" s="45"/>
-      <c r="UM29" s="45"/>
-      <c r="UN29" s="45"/>
-      <c r="UO29" s="45"/>
-      <c r="UP29" s="45"/>
-      <c r="UQ29" s="45"/>
-      <c r="UR29" s="45"/>
-      <c r="US29" s="45"/>
-      <c r="UT29" s="45"/>
-      <c r="UU29" s="45"/>
-      <c r="UV29" s="45"/>
-      <c r="UW29" s="45"/>
-      <c r="UX29" s="45"/>
-      <c r="UY29" s="45"/>
-      <c r="UZ29" s="45"/>
-      <c r="VA29" s="45"/>
-      <c r="VB29" s="45"/>
-      <c r="VC29" s="45"/>
-      <c r="VD29" s="45"/>
-      <c r="VE29" s="45"/>
-      <c r="VF29" s="45"/>
-      <c r="VG29" s="45"/>
-      <c r="VH29" s="45"/>
-      <c r="VI29" s="45"/>
-      <c r="VJ29" s="45"/>
-      <c r="VK29" s="45"/>
-      <c r="VL29" s="45"/>
-      <c r="VM29" s="45"/>
-      <c r="VN29" s="45"/>
-      <c r="VO29" s="45"/>
-      <c r="VP29" s="45"/>
-      <c r="VQ29" s="45"/>
-      <c r="VR29" s="45"/>
-      <c r="VS29" s="45"/>
-      <c r="VT29" s="45"/>
-      <c r="VU29" s="45"/>
-      <c r="VV29" s="45"/>
-      <c r="VW29" s="45"/>
-      <c r="VX29" s="45"/>
-      <c r="VY29" s="45"/>
-      <c r="VZ29" s="45"/>
-      <c r="WA29" s="45"/>
-      <c r="WB29" s="45"/>
-      <c r="WC29" s="45"/>
-      <c r="WD29" s="45"/>
-      <c r="WE29" s="45"/>
-      <c r="WF29" s="45"/>
-      <c r="WG29" s="45"/>
-      <c r="WH29" s="45"/>
-      <c r="WI29" s="45"/>
-      <c r="WJ29" s="45"/>
-      <c r="WK29" s="45"/>
-      <c r="WL29" s="45"/>
-      <c r="WM29" s="45"/>
-      <c r="WN29" s="45"/>
-      <c r="WO29" s="45"/>
-      <c r="WP29" s="45"/>
-      <c r="WQ29" s="45"/>
-      <c r="WR29" s="45"/>
-      <c r="WS29" s="45"/>
-      <c r="WT29" s="45"/>
-      <c r="WU29" s="45"/>
-      <c r="WV29" s="45"/>
-      <c r="WW29" s="45"/>
-      <c r="WX29" s="45"/>
-      <c r="WY29" s="45"/>
-      <c r="WZ29" s="45"/>
-      <c r="XA29" s="45"/>
-      <c r="XB29" s="45"/>
-      <c r="XC29" s="45"/>
-      <c r="XD29" s="45"/>
-      <c r="XE29" s="45"/>
-      <c r="XF29" s="45"/>
-      <c r="XG29" s="45"/>
-      <c r="XH29" s="45"/>
-      <c r="XI29" s="45"/>
-      <c r="XJ29" s="45"/>
-      <c r="XK29" s="45"/>
-      <c r="XL29" s="45"/>
-      <c r="XM29" s="45"/>
-      <c r="XN29" s="45"/>
-      <c r="XO29" s="45"/>
-      <c r="XP29" s="45"/>
-      <c r="XQ29" s="45"/>
-      <c r="XR29" s="45"/>
-      <c r="XS29" s="45"/>
-      <c r="XT29" s="45"/>
-      <c r="XU29" s="45"/>
-      <c r="XV29" s="45"/>
-      <c r="XW29" s="45"/>
-      <c r="XX29" s="45"/>
-      <c r="XY29" s="45"/>
-      <c r="XZ29" s="45"/>
-      <c r="YA29" s="45"/>
-      <c r="YB29" s="45"/>
-      <c r="YC29" s="45"/>
-      <c r="YD29" s="45"/>
-      <c r="YE29" s="45"/>
-      <c r="YF29" s="45"/>
-      <c r="YG29" s="45"/>
-      <c r="YH29" s="45"/>
-      <c r="YI29" s="45"/>
-      <c r="YJ29" s="45"/>
-      <c r="YK29" s="45"/>
-      <c r="YL29" s="45"/>
-      <c r="YM29" s="45"/>
-      <c r="YN29" s="45"/>
-      <c r="YO29" s="45"/>
-      <c r="YP29" s="45"/>
-      <c r="YQ29" s="45"/>
-      <c r="YR29" s="45"/>
-      <c r="YS29" s="45"/>
-      <c r="YT29" s="45"/>
-      <c r="YU29" s="45"/>
-      <c r="YV29" s="45"/>
-      <c r="YW29" s="45"/>
-      <c r="YX29" s="45"/>
-      <c r="YY29" s="45"/>
-      <c r="YZ29" s="45"/>
-      <c r="ZB29" s="45"/>
-      <c r="ZC29" s="45"/>
-      <c r="ZE29" s="45"/>
-      <c r="ZG29" s="45"/>
-      <c r="ZI29" s="45"/>
-      <c r="ZK29" s="45"/>
-      <c r="ZM29" s="45"/>
-      <c r="ZN29" s="45"/>
-      <c r="ZO29" s="45"/>
-      <c r="ZP29" s="45"/>
-      <c r="ZQ29" s="45"/>
-      <c r="ZR29" s="45"/>
-      <c r="ZS29" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="39">
     <mergeCell ref="A1:DE1"/>
     <mergeCell ref="A2:DE2"/>
     <mergeCell ref="A3:DE3"/>
@@ -21271,25 +20560,18 @@
     <mergeCell ref="BY18:CF18"/>
     <mergeCell ref="CG18:CM18"/>
     <mergeCell ref="CN18:DE18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:BA19"/>
-    <mergeCell ref="BB19:BO19"/>
-    <mergeCell ref="BP19:BX19"/>
-    <mergeCell ref="BY19:CF19"/>
-    <mergeCell ref="CG19:CM19"/>
+    <mergeCell ref="A19:CM19"/>
     <mergeCell ref="CN19:DE19"/>
-    <mergeCell ref="A20:CM20"/>
-    <mergeCell ref="CN20:DE20"/>
+    <mergeCell ref="A20:DE20"/>
     <mergeCell ref="A21:DE21"/>
-    <mergeCell ref="A22:DE22"/>
-    <mergeCell ref="A24:DE24"/>
-    <mergeCell ref="A26:AG26"/>
-    <mergeCell ref="AI26:BM26"/>
-    <mergeCell ref="BO26:CP26"/>
-    <mergeCell ref="CU27:CZ27"/>
-    <mergeCell ref="D28:AG28"/>
-    <mergeCell ref="AI28:BM28"/>
-    <mergeCell ref="BO28:CP28"/>
+    <mergeCell ref="A23:DE23"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="AI25:BM25"/>
+    <mergeCell ref="BO25:CP25"/>
+    <mergeCell ref="CU26:CZ26"/>
+    <mergeCell ref="D27:AG27"/>
+    <mergeCell ref="AI27:BM27"/>
+    <mergeCell ref="BO27:CP27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -21298,7 +20580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d952c594-a4d8-453c-98ba-da55d7bfbdb3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f71c3f43-e39d-4677-83a7-a7a1bb39f867}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/invoice/utils/output.xlsx
+++ b/invoice/utils/output.xlsx
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{abbaf6f1-5cb9-4912-9710-70985e460a84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842130e8-8b58-45e4-927a-d6debb13d74a}">
   <dimension ref="A1:ZT28"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -20580,7 +20580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f71c3f43-e39d-4677-83a7-a7a1bb39f867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2bb92aa6-ac89-4453-a711-d979ebf20db5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/invoice/utils/output.xlsx
+++ b/invoice/utils/output.xlsx
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39af649c-0000-4bd5-a144-fcd51c896490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481b23f8-0cc5-43ce-9095-aefa45926aff}">
   <dimension ref="A1:ZT28"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -20580,7 +20580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6558651d-a200-4c50-9401-d734784d9315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b83bf381-2a87-4712-b4bb-a70643f9c3f0}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
